--- a/AAII_Financials/Yearly/IMAB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IMAB_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="92">
   <si>
     <t>IMAB</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,34 +665,34 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G7" s="2" t="s">
         <v>3</v>
       </c>
@@ -705,20 +705,23 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>7700</v>
+        <v>4200</v>
       </c>
       <c r="E8" s="3">
-        <v>1700</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
+        <v>7500</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1600</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -732,9 +735,12 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -759,9 +765,12 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -786,9 +795,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,19 +812,20 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>61100</v>
+        <v>117600</v>
       </c>
       <c r="E12" s="3">
-        <v>38300</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
+        <v>59600</v>
+      </c>
+      <c r="F12" s="3">
+        <v>37400</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -826,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,36 +869,42 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3200</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -907,9 +929,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,19 +943,20 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>70700</v>
+        <v>212500</v>
       </c>
       <c r="E17" s="3">
-        <v>42000</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
+        <v>68900</v>
+      </c>
+      <c r="F17" s="3">
+        <v>40900</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -944,20 +970,23 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-62900</v>
+        <v>-208300</v>
       </c>
       <c r="E18" s="3">
-        <v>-40300</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
+        <v>-61400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-39300</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -971,9 +1000,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,19 +1017,20 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7100</v>
+        <v>5500</v>
       </c>
       <c r="E20" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
+        <v>6900</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-1600</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1011,20 +1044,23 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-54900</v>
+        <v>-201400</v>
       </c>
       <c r="E21" s="3">
-        <v>-41700</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+        <v>-53600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-40700</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1038,21 +1074,24 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1700</v>
+        <v>400</v>
       </c>
       <c r="E22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F22" s="3">
         <v>800</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1065,20 +1104,23 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-57600</v>
+        <v>-203200</v>
       </c>
       <c r="E23" s="3">
-        <v>-42800</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
+        <v>-56100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-41700</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1092,20 +1134,23 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1119,9 +1164,12 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,20 +1194,23 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-57800</v>
+        <v>-203200</v>
       </c>
       <c r="E26" s="3">
-        <v>-42800</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
+        <v>-56400</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-41700</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1173,20 +1224,23 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-57800</v>
+        <v>-207800</v>
       </c>
       <c r="E27" s="3">
-        <v>-42800</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
+        <v>-56400</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-41700</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1200,9 +1254,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,9 +1284,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1254,9 +1314,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,20 +1374,23 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7100</v>
+        <v>-5500</v>
       </c>
       <c r="E32" s="3">
-        <v>1700</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
+        <v>-6900</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1600</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1335,20 +1404,23 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-57800</v>
+        <v>-207800</v>
       </c>
       <c r="E33" s="3">
-        <v>-42800</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
+        <v>-56400</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-41700</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1362,9 +1434,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,20 +1464,23 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-57800</v>
+        <v>-207800</v>
       </c>
       <c r="E35" s="3">
-        <v>-42800</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
+        <v>-56400</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-41700</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1416,26 +1494,29 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1448,9 +1529,12 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,19 +1560,20 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>227900</v>
+        <v>159400</v>
       </c>
       <c r="E41" s="3">
-        <v>44200</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+        <v>222600</v>
+      </c>
+      <c r="F41" s="3">
+        <v>43200</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1501,20 +1587,23 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>30900</v>
+        <v>4500</v>
       </c>
       <c r="E42" s="3">
-        <v>38200</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
+        <v>30200</v>
+      </c>
+      <c r="F42" s="3">
+        <v>37300</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1528,21 +1617,24 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8200</v>
+        <v>4100</v>
       </c>
       <c r="E43" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1555,9 +1647,12 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1582,20 +1677,23 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>25200</v>
+        <v>22800</v>
       </c>
       <c r="E45" s="3">
-        <v>16300</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+        <v>24700</v>
+      </c>
+      <c r="F45" s="3">
+        <v>15900</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1609,20 +1707,23 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>292200</v>
+        <v>190800</v>
       </c>
       <c r="E46" s="3">
-        <v>99200</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
+        <v>285500</v>
+      </c>
+      <c r="F46" s="3">
+        <v>96900</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1636,9 +1737,12 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1663,20 +1767,23 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="E48" s="3">
-        <v>3200</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+        <v>3900</v>
+      </c>
+      <c r="F48" s="3">
+        <v>3100</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1690,20 +1797,23 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>44700</v>
+        <v>43600</v>
       </c>
       <c r="E49" s="3">
-        <v>44700</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+        <v>43600</v>
+      </c>
+      <c r="F49" s="3">
+        <v>43600</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1717,9 +1827,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,36 +1887,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+        <v>2600</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,20 +1947,23 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>340900</v>
+        <v>243500</v>
       </c>
       <c r="E54" s="3">
-        <v>147100</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
+        <v>333000</v>
+      </c>
+      <c r="F54" s="3">
+        <v>143700</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1852,9 +1977,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,8 +2008,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1905,20 +2035,23 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="E58" s="3">
-        <v>14200</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+        <v>11200</v>
+      </c>
+      <c r="F58" s="3">
+        <v>13900</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -1932,20 +2065,23 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>38200</v>
+        <v>75500</v>
       </c>
       <c r="E59" s="3">
-        <v>13800</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+        <v>37300</v>
+      </c>
+      <c r="F59" s="3">
+        <v>13500</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -1959,20 +2095,23 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>49700</v>
+        <v>82500</v>
       </c>
       <c r="E60" s="3">
-        <v>28000</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
+        <v>48500</v>
+      </c>
+      <c r="F60" s="3">
+        <v>27400</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -1986,9 +2125,12 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -1996,10 +2138,10 @@
         <v>9600</v>
       </c>
       <c r="E61" s="3">
-        <v>16400</v>
+        <v>9400</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2013,20 +2155,23 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E62" s="3">
         <v>400</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2040,9 +2185,12 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,20 +2275,23 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>59600</v>
+        <v>93600</v>
       </c>
       <c r="E66" s="3">
-        <v>88200</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
+        <v>58300</v>
+      </c>
+      <c r="F66" s="3">
+        <v>86200</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2148,9 +2305,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,20 +2379,23 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>418300</v>
+        <v>435100</v>
       </c>
       <c r="E70" s="3">
-        <v>101900</v>
+        <v>408600</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>99600</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2242,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,20 +2439,23 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-145600</v>
+        <v>-349600</v>
       </c>
       <c r="E72" s="3">
-        <v>-51300</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>-142200</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-50200</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2296,9 +2469,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,20 +2559,23 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-137000</v>
+        <v>-285200</v>
       </c>
       <c r="E76" s="3">
-        <v>-43000</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
+        <v>-133900</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-42100</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2404,9 +2589,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,26 +2619,29 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2463,20 +2654,23 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-57800</v>
+        <v>-207800</v>
       </c>
       <c r="E81" s="3">
-        <v>-42800</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
+        <v>-56400</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-41700</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2490,9 +2684,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,20 +2701,21 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E83" s="3">
+        <v>900</v>
+      </c>
+      <c r="F83" s="3">
         <v>200</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,9 +2728,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,20 +2878,23 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-40300</v>
+        <v>-121500</v>
       </c>
       <c r="E89" s="3">
-        <v>-36200</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
+        <v>-39300</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-35300</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2692,9 +2908,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,19 +2925,20 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2100</v>
+        <v>-1700</v>
       </c>
       <c r="E91" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+        <v>-2000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-2800</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -2732,9 +2952,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,20 +3012,23 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1400</v>
+        <v>29700</v>
       </c>
       <c r="E94" s="3">
-        <v>-22600</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+        <v>1300</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-22100</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -2813,9 +3042,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,8 +3059,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,20 +3176,23 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>212300</v>
+        <v>21400</v>
       </c>
       <c r="E100" s="3">
-        <v>108800</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
+        <v>207100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>106200</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -2961,20 +3206,23 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>8600</v>
+        <v>2100</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
+        <v>8400</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -2988,20 +3236,23 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>182000</v>
+        <v>-68300</v>
       </c>
       <c r="E102" s="3">
-        <v>50000</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
+        <v>177500</v>
+      </c>
+      <c r="F102" s="3">
+        <v>48800</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
@@ -3015,7 +3266,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/IMAB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IMAB_YR_FIN.xlsx
@@ -715,13 +715,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="E8" s="3">
-        <v>7500</v>
+        <v>7800</v>
       </c>
       <c r="F8" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -819,13 +819,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>117600</v>
+        <v>122100</v>
       </c>
       <c r="E12" s="3">
-        <v>59600</v>
+        <v>61900</v>
       </c>
       <c r="F12" s="3">
-        <v>37400</v>
+        <v>38800</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -879,7 +879,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -950,13 +950,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>212500</v>
+        <v>220500</v>
       </c>
       <c r="E17" s="3">
-        <v>68900</v>
+        <v>71500</v>
       </c>
       <c r="F17" s="3">
-        <v>40900</v>
+        <v>42500</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -980,13 +980,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-208300</v>
+        <v>-216100</v>
       </c>
       <c r="E18" s="3">
-        <v>-61400</v>
+        <v>-63700</v>
       </c>
       <c r="F18" s="3">
-        <v>-39300</v>
+        <v>-40800</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1024,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="E20" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="F20" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1054,13 +1054,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-201400</v>
+        <v>-209000</v>
       </c>
       <c r="E21" s="3">
-        <v>-53600</v>
+        <v>-55600</v>
       </c>
       <c r="F21" s="3">
-        <v>-40700</v>
+        <v>-42300</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1087,7 +1087,7 @@
         <v>400</v>
       </c>
       <c r="E22" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F22" s="3">
         <v>800</v>
@@ -1114,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-203200</v>
+        <v>-210900</v>
       </c>
       <c r="E23" s="3">
-        <v>-56100</v>
+        <v>-58300</v>
       </c>
       <c r="F23" s="3">
-        <v>-41700</v>
+        <v>-43300</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1204,13 +1204,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-203200</v>
+        <v>-210900</v>
       </c>
       <c r="E26" s="3">
-        <v>-56400</v>
+        <v>-58500</v>
       </c>
       <c r="F26" s="3">
-        <v>-41700</v>
+        <v>-43300</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-207800</v>
+        <v>-215700</v>
       </c>
       <c r="E27" s="3">
-        <v>-56400</v>
+        <v>-58500</v>
       </c>
       <c r="F27" s="3">
-        <v>-41700</v>
+        <v>-43300</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1384,13 +1384,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5500</v>
+        <v>-5700</v>
       </c>
       <c r="E32" s="3">
-        <v>-6900</v>
+        <v>-7100</v>
       </c>
       <c r="F32" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1414,13 +1414,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-207800</v>
+        <v>-215700</v>
       </c>
       <c r="E33" s="3">
-        <v>-56400</v>
+        <v>-58500</v>
       </c>
       <c r="F33" s="3">
-        <v>-41700</v>
+        <v>-43300</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1474,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-207800</v>
+        <v>-215700</v>
       </c>
       <c r="E35" s="3">
-        <v>-56400</v>
+        <v>-58500</v>
       </c>
       <c r="F35" s="3">
-        <v>-41700</v>
+        <v>-43300</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>159400</v>
+        <v>165200</v>
       </c>
       <c r="E41" s="3">
-        <v>222600</v>
+        <v>230700</v>
       </c>
       <c r="F41" s="3">
-        <v>43200</v>
+        <v>44700</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1597,13 +1597,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="E42" s="3">
-        <v>30200</v>
+        <v>31300</v>
       </c>
       <c r="F42" s="3">
-        <v>37300</v>
+        <v>38700</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1627,10 +1627,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="E43" s="3">
-        <v>8000</v>
+        <v>8300</v>
       </c>
       <c r="F43" s="3">
         <v>500</v>
@@ -1687,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>22800</v>
+        <v>23600</v>
       </c>
       <c r="E45" s="3">
-        <v>24700</v>
+        <v>25500</v>
       </c>
       <c r="F45" s="3">
-        <v>15900</v>
+        <v>16500</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1717,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>190800</v>
+        <v>197700</v>
       </c>
       <c r="E46" s="3">
-        <v>285500</v>
+        <v>295800</v>
       </c>
       <c r="F46" s="3">
-        <v>96900</v>
+        <v>100400</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6500</v>
+        <v>6800</v>
       </c>
       <c r="E48" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="F48" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1807,13 +1807,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>43600</v>
+        <v>45200</v>
       </c>
       <c r="E49" s="3">
-        <v>43600</v>
+        <v>45200</v>
       </c>
       <c r="F49" s="3">
-        <v>43600</v>
+        <v>45200</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1897,7 +1897,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>3</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>243500</v>
+        <v>252300</v>
       </c>
       <c r="E54" s="3">
-        <v>333000</v>
+        <v>345100</v>
       </c>
       <c r="F54" s="3">
-        <v>143700</v>
+        <v>148900</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2045,13 +2045,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="E58" s="3">
-        <v>11200</v>
+        <v>11600</v>
       </c>
       <c r="F58" s="3">
-        <v>13900</v>
+        <v>14400</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>75500</v>
+        <v>78200</v>
       </c>
       <c r="E59" s="3">
-        <v>37300</v>
+        <v>38700</v>
       </c>
       <c r="F59" s="3">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>82500</v>
+        <v>85500</v>
       </c>
       <c r="E60" s="3">
-        <v>48500</v>
+        <v>50300</v>
       </c>
       <c r="F60" s="3">
-        <v>27400</v>
+        <v>28300</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2135,13 +2135,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9600</v>
+        <v>9900</v>
       </c>
       <c r="E61" s="3">
-        <v>9400</v>
+        <v>9700</v>
       </c>
       <c r="F61" s="3">
-        <v>16000</v>
+        <v>16600</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E62" s="3">
         <v>400</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>93600</v>
+        <v>97000</v>
       </c>
       <c r="E66" s="3">
-        <v>58300</v>
+        <v>60400</v>
       </c>
       <c r="F66" s="3">
-        <v>86200</v>
+        <v>89300</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2389,13 +2389,13 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>435100</v>
+        <v>450800</v>
       </c>
       <c r="E70" s="3">
-        <v>408600</v>
+        <v>423400</v>
       </c>
       <c r="F70" s="3">
-        <v>99600</v>
+        <v>103200</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-349600</v>
+        <v>-362200</v>
       </c>
       <c r="E72" s="3">
-        <v>-142200</v>
+        <v>-147300</v>
       </c>
       <c r="F72" s="3">
-        <v>-50200</v>
+        <v>-52000</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-285200</v>
+        <v>-295500</v>
       </c>
       <c r="E76" s="3">
-        <v>-133900</v>
+        <v>-138700</v>
       </c>
       <c r="F76" s="3">
-        <v>-42100</v>
+        <v>-43600</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,13 +2664,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-207800</v>
+        <v>-215700</v>
       </c>
       <c r="E81" s="3">
-        <v>-56400</v>
+        <v>-58500</v>
       </c>
       <c r="F81" s="3">
-        <v>-41700</v>
+        <v>-43300</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2711,7 +2711,7 @@
         <v>1400</v>
       </c>
       <c r="E83" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
@@ -2888,13 +2888,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-121500</v>
+        <v>-126100</v>
       </c>
       <c r="E89" s="3">
-        <v>-39300</v>
+        <v>-40800</v>
       </c>
       <c r="F89" s="3">
-        <v>-35300</v>
+        <v>-36600</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2932,13 +2932,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="E91" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="F91" s="3">
-        <v>-2800</v>
+        <v>-3000</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -3022,13 +3022,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>29700</v>
+        <v>30900</v>
       </c>
       <c r="E94" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F94" s="3">
-        <v>-22100</v>
+        <v>-22900</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -3186,13 +3186,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>21400</v>
+        <v>22200</v>
       </c>
       <c r="E100" s="3">
-        <v>207100</v>
+        <v>214900</v>
       </c>
       <c r="F100" s="3">
-        <v>106200</v>
+        <v>110200</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3216,10 +3216,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="E101" s="3">
-        <v>8400</v>
+        <v>8700</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-68300</v>
+        <v>-70800</v>
       </c>
       <c r="E102" s="3">
-        <v>177500</v>
+        <v>184200</v>
       </c>
       <c r="F102" s="3">
-        <v>48800</v>
+        <v>50600</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/IMAB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IMAB_YR_FIN.xlsx
@@ -715,13 +715,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="E8" s="3">
-        <v>7800</v>
+        <v>8200</v>
       </c>
       <c r="F8" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -819,13 +819,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>122100</v>
+        <v>127800</v>
       </c>
       <c r="E12" s="3">
-        <v>61900</v>
+        <v>64800</v>
       </c>
       <c r="F12" s="3">
-        <v>38800</v>
+        <v>40600</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -879,7 +879,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -950,13 +950,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>220500</v>
+        <v>230900</v>
       </c>
       <c r="E17" s="3">
-        <v>71500</v>
+        <v>74900</v>
       </c>
       <c r="F17" s="3">
-        <v>42500</v>
+        <v>44500</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -980,13 +980,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-216100</v>
+        <v>-226400</v>
       </c>
       <c r="E18" s="3">
-        <v>-63700</v>
+        <v>-66700</v>
       </c>
       <c r="F18" s="3">
-        <v>-40800</v>
+        <v>-42700</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1024,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="E20" s="3">
-        <v>7100</v>
+        <v>7500</v>
       </c>
       <c r="F20" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1054,13 +1054,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-209000</v>
+        <v>-218900</v>
       </c>
       <c r="E21" s="3">
-        <v>-55600</v>
+        <v>-58200</v>
       </c>
       <c r="F21" s="3">
-        <v>-42300</v>
+        <v>-44300</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1084,13 +1084,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E22" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F22" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1114,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-210900</v>
+        <v>-220900</v>
       </c>
       <c r="E23" s="3">
-        <v>-58300</v>
+        <v>-61000</v>
       </c>
       <c r="F23" s="3">
-        <v>-43300</v>
+        <v>-45400</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1204,13 +1204,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-210900</v>
+        <v>-220900</v>
       </c>
       <c r="E26" s="3">
-        <v>-58500</v>
+        <v>-61300</v>
       </c>
       <c r="F26" s="3">
-        <v>-43300</v>
+        <v>-45400</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-215700</v>
+        <v>-225900</v>
       </c>
       <c r="E27" s="3">
-        <v>-58500</v>
+        <v>-61300</v>
       </c>
       <c r="F27" s="3">
-        <v>-43300</v>
+        <v>-45400</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1384,13 +1384,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5700</v>
+        <v>-5900</v>
       </c>
       <c r="E32" s="3">
-        <v>-7100</v>
+        <v>-7500</v>
       </c>
       <c r="F32" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1414,13 +1414,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-215700</v>
+        <v>-225900</v>
       </c>
       <c r="E33" s="3">
-        <v>-58500</v>
+        <v>-61300</v>
       </c>
       <c r="F33" s="3">
-        <v>-43300</v>
+        <v>-45400</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1474,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-215700</v>
+        <v>-225900</v>
       </c>
       <c r="E35" s="3">
-        <v>-58500</v>
+        <v>-61300</v>
       </c>
       <c r="F35" s="3">
-        <v>-43300</v>
+        <v>-45400</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>165200</v>
+        <v>173000</v>
       </c>
       <c r="E41" s="3">
-        <v>230700</v>
+        <v>241600</v>
       </c>
       <c r="F41" s="3">
-        <v>44700</v>
+        <v>46800</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1597,13 +1597,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4600</v>
+        <v>4900</v>
       </c>
       <c r="E42" s="3">
-        <v>31300</v>
+        <v>32800</v>
       </c>
       <c r="F42" s="3">
-        <v>38700</v>
+        <v>40500</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1627,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="E43" s="3">
-        <v>8300</v>
+        <v>8700</v>
       </c>
       <c r="F43" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1687,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>23600</v>
+        <v>24700</v>
       </c>
       <c r="E45" s="3">
-        <v>25500</v>
+        <v>26800</v>
       </c>
       <c r="F45" s="3">
-        <v>16500</v>
+        <v>17300</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1717,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>197700</v>
+        <v>207100</v>
       </c>
       <c r="E46" s="3">
-        <v>295800</v>
+        <v>309800</v>
       </c>
       <c r="F46" s="3">
-        <v>100400</v>
+        <v>105200</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6800</v>
+        <v>7100</v>
       </c>
       <c r="E48" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="F48" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1807,13 +1807,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>45200</v>
+        <v>47400</v>
       </c>
       <c r="E49" s="3">
-        <v>45200</v>
+        <v>47400</v>
       </c>
       <c r="F49" s="3">
-        <v>45200</v>
+        <v>47400</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1897,7 +1897,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>3</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>252300</v>
+        <v>264300</v>
       </c>
       <c r="E54" s="3">
-        <v>345100</v>
+        <v>361400</v>
       </c>
       <c r="F54" s="3">
-        <v>148900</v>
+        <v>156000</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2045,13 +2045,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7300</v>
+        <v>7600</v>
       </c>
       <c r="E58" s="3">
-        <v>11600</v>
+        <v>12200</v>
       </c>
       <c r="F58" s="3">
-        <v>14400</v>
+        <v>15100</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>78200</v>
+        <v>81900</v>
       </c>
       <c r="E59" s="3">
-        <v>38700</v>
+        <v>40500</v>
       </c>
       <c r="F59" s="3">
-        <v>14000</v>
+        <v>14600</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>85500</v>
+        <v>89500</v>
       </c>
       <c r="E60" s="3">
-        <v>50300</v>
+        <v>52700</v>
       </c>
       <c r="F60" s="3">
-        <v>28300</v>
+        <v>29700</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2135,13 +2135,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9900</v>
+        <v>10400</v>
       </c>
       <c r="E61" s="3">
-        <v>9700</v>
+        <v>10200</v>
       </c>
       <c r="F61" s="3">
-        <v>16600</v>
+        <v>17300</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>97000</v>
+        <v>101600</v>
       </c>
       <c r="E66" s="3">
-        <v>60400</v>
+        <v>63200</v>
       </c>
       <c r="F66" s="3">
-        <v>89300</v>
+        <v>93500</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2389,13 +2389,13 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>450800</v>
+        <v>472200</v>
       </c>
       <c r="E70" s="3">
-        <v>423400</v>
+        <v>443500</v>
       </c>
       <c r="F70" s="3">
-        <v>103200</v>
+        <v>108000</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-362200</v>
+        <v>-379400</v>
       </c>
       <c r="E72" s="3">
-        <v>-147300</v>
+        <v>-154300</v>
       </c>
       <c r="F72" s="3">
-        <v>-52000</v>
+        <v>-54400</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-295500</v>
+        <v>-309500</v>
       </c>
       <c r="E76" s="3">
-        <v>-138700</v>
+        <v>-145300</v>
       </c>
       <c r="F76" s="3">
-        <v>-43600</v>
+        <v>-45600</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,13 +2664,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-215700</v>
+        <v>-225900</v>
       </c>
       <c r="E81" s="3">
-        <v>-58500</v>
+        <v>-61300</v>
       </c>
       <c r="F81" s="3">
-        <v>-43300</v>
+        <v>-45400</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2708,7 +2708,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E83" s="3">
         <v>1000</v>
@@ -2888,13 +2888,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-126100</v>
+        <v>-132000</v>
       </c>
       <c r="E89" s="3">
-        <v>-40800</v>
+        <v>-42700</v>
       </c>
       <c r="F89" s="3">
-        <v>-36600</v>
+        <v>-38400</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2932,13 +2932,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="E91" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="F91" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -3022,13 +3022,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>30900</v>
+        <v>32300</v>
       </c>
       <c r="E94" s="3">
         <v>1400</v>
       </c>
       <c r="F94" s="3">
-        <v>-22900</v>
+        <v>-24000</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -3186,13 +3186,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>22200</v>
+        <v>23200</v>
       </c>
       <c r="E100" s="3">
-        <v>214900</v>
+        <v>225100</v>
       </c>
       <c r="F100" s="3">
-        <v>110200</v>
+        <v>115400</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3216,10 +3216,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E101" s="3">
-        <v>8700</v>
+        <v>9100</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-70800</v>
+        <v>-74200</v>
       </c>
       <c r="E102" s="3">
-        <v>184200</v>
+        <v>192900</v>
       </c>
       <c r="F102" s="3">
-        <v>50600</v>
+        <v>53000</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/IMAB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IMAB_YR_FIN.xlsx
@@ -819,13 +819,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>127800</v>
+        <v>128400</v>
       </c>
       <c r="E12" s="3">
-        <v>64800</v>
+        <v>65100</v>
       </c>
       <c r="F12" s="3">
-        <v>40600</v>
+        <v>40800</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -950,13 +950,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>230900</v>
+        <v>231900</v>
       </c>
       <c r="E17" s="3">
-        <v>74900</v>
+        <v>75200</v>
       </c>
       <c r="F17" s="3">
-        <v>44500</v>
+        <v>44700</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -980,13 +980,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-226400</v>
+        <v>-227300</v>
       </c>
       <c r="E18" s="3">
-        <v>-66700</v>
+        <v>-67000</v>
       </c>
       <c r="F18" s="3">
-        <v>-42700</v>
+        <v>-42900</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1024,7 +1024,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="E20" s="3">
         <v>7500</v>
@@ -1054,13 +1054,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-218900</v>
+        <v>-219900</v>
       </c>
       <c r="E21" s="3">
-        <v>-58200</v>
+        <v>-58500</v>
       </c>
       <c r="F21" s="3">
-        <v>-44300</v>
+        <v>-44500</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1114,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-220900</v>
+        <v>-221800</v>
       </c>
       <c r="E23" s="3">
-        <v>-61000</v>
+        <v>-61300</v>
       </c>
       <c r="F23" s="3">
-        <v>-45400</v>
+        <v>-45600</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1204,13 +1204,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-220900</v>
+        <v>-221800</v>
       </c>
       <c r="E26" s="3">
-        <v>-61300</v>
+        <v>-61500</v>
       </c>
       <c r="F26" s="3">
-        <v>-45400</v>
+        <v>-45600</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-225900</v>
+        <v>-226900</v>
       </c>
       <c r="E27" s="3">
-        <v>-61300</v>
+        <v>-61500</v>
       </c>
       <c r="F27" s="3">
-        <v>-45400</v>
+        <v>-45600</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1384,7 +1384,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="E32" s="3">
         <v>-7500</v>
@@ -1414,13 +1414,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-225900</v>
+        <v>-226900</v>
       </c>
       <c r="E33" s="3">
-        <v>-61300</v>
+        <v>-61500</v>
       </c>
       <c r="F33" s="3">
-        <v>-45400</v>
+        <v>-45600</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1474,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-225900</v>
+        <v>-226900</v>
       </c>
       <c r="E35" s="3">
-        <v>-61300</v>
+        <v>-61500</v>
       </c>
       <c r="F35" s="3">
-        <v>-45400</v>
+        <v>-45600</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>173000</v>
+        <v>173800</v>
       </c>
       <c r="E41" s="3">
-        <v>241600</v>
+        <v>242700</v>
       </c>
       <c r="F41" s="3">
-        <v>46800</v>
+        <v>47000</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1600,10 +1600,10 @@
         <v>4900</v>
       </c>
       <c r="E42" s="3">
-        <v>32800</v>
+        <v>32900</v>
       </c>
       <c r="F42" s="3">
-        <v>40500</v>
+        <v>40700</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1687,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>24700</v>
+        <v>24800</v>
       </c>
       <c r="E45" s="3">
-        <v>26800</v>
+        <v>26900</v>
       </c>
       <c r="F45" s="3">
-        <v>17300</v>
+        <v>17400</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1717,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>207100</v>
+        <v>208000</v>
       </c>
       <c r="E46" s="3">
-        <v>309800</v>
+        <v>311200</v>
       </c>
       <c r="F46" s="3">
-        <v>105200</v>
+        <v>105700</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1807,13 +1807,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>47400</v>
+        <v>47600</v>
       </c>
       <c r="E49" s="3">
-        <v>47400</v>
+        <v>47600</v>
       </c>
       <c r="F49" s="3">
-        <v>47400</v>
+        <v>47600</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>264300</v>
+        <v>265500</v>
       </c>
       <c r="E54" s="3">
-        <v>361400</v>
+        <v>363000</v>
       </c>
       <c r="F54" s="3">
-        <v>156000</v>
+        <v>156700</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>81900</v>
+        <v>82300</v>
       </c>
       <c r="E59" s="3">
-        <v>40500</v>
+        <v>40700</v>
       </c>
       <c r="F59" s="3">
-        <v>14600</v>
+        <v>14700</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>89500</v>
+        <v>89900</v>
       </c>
       <c r="E60" s="3">
-        <v>52700</v>
+        <v>52900</v>
       </c>
       <c r="F60" s="3">
-        <v>29700</v>
+        <v>29800</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2141,7 +2141,7 @@
         <v>10200</v>
       </c>
       <c r="F61" s="3">
-        <v>17300</v>
+        <v>17400</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>101600</v>
+        <v>102100</v>
       </c>
       <c r="E66" s="3">
-        <v>63200</v>
+        <v>63500</v>
       </c>
       <c r="F66" s="3">
-        <v>93500</v>
+        <v>93900</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2389,13 +2389,13 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>472200</v>
+        <v>474300</v>
       </c>
       <c r="E70" s="3">
-        <v>443500</v>
+        <v>445400</v>
       </c>
       <c r="F70" s="3">
-        <v>108000</v>
+        <v>108500</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-379400</v>
+        <v>-381100</v>
       </c>
       <c r="E72" s="3">
-        <v>-154300</v>
+        <v>-155000</v>
       </c>
       <c r="F72" s="3">
-        <v>-54400</v>
+        <v>-54700</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-309500</v>
+        <v>-310900</v>
       </c>
       <c r="E76" s="3">
-        <v>-145300</v>
+        <v>-145900</v>
       </c>
       <c r="F76" s="3">
-        <v>-45600</v>
+        <v>-45800</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,13 +2664,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-225900</v>
+        <v>-226900</v>
       </c>
       <c r="E81" s="3">
-        <v>-61300</v>
+        <v>-61500</v>
       </c>
       <c r="F81" s="3">
-        <v>-45400</v>
+        <v>-45600</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2888,13 +2888,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-132000</v>
+        <v>-132600</v>
       </c>
       <c r="E89" s="3">
-        <v>-42700</v>
+        <v>-42900</v>
       </c>
       <c r="F89" s="3">
-        <v>-38400</v>
+        <v>-38500</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -3022,13 +3022,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>32300</v>
+        <v>32500</v>
       </c>
       <c r="E94" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F94" s="3">
-        <v>-24000</v>
+        <v>-24100</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -3186,13 +3186,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>23200</v>
+        <v>23300</v>
       </c>
       <c r="E100" s="3">
-        <v>225100</v>
+        <v>226100</v>
       </c>
       <c r="F100" s="3">
-        <v>115400</v>
+        <v>115900</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3246,13 +3246,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-74200</v>
+        <v>-74500</v>
       </c>
       <c r="E102" s="3">
-        <v>192900</v>
+        <v>193800</v>
       </c>
       <c r="F102" s="3">
-        <v>53000</v>
+        <v>53300</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/IMAB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IMAB_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="92">
   <si>
     <t>IMAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,37 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,24 +708,27 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>4600</v>
+        <v>240700</v>
       </c>
       <c r="E8" s="3">
-        <v>8200</v>
+        <v>4700</v>
       </c>
       <c r="F8" s="3">
+        <v>8400</v>
+      </c>
+      <c r="G8" s="3">
         <v>1800</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -738,9 +741,12 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -768,9 +774,12 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,22 +825,23 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>128400</v>
+        <v>153600</v>
       </c>
       <c r="E12" s="3">
-        <v>65100</v>
+        <v>131100</v>
       </c>
       <c r="F12" s="3">
-        <v>40800</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
+        <v>66500</v>
+      </c>
+      <c r="G12" s="3">
+        <v>41700</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,17 +888,20 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3500</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+        <v>-63600</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3600</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -899,12 +918,15 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -932,9 +954,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,22 +969,23 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>231900</v>
+        <v>152800</v>
       </c>
       <c r="E17" s="3">
-        <v>75200</v>
+        <v>236800</v>
       </c>
       <c r="F17" s="3">
-        <v>44700</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>76800</v>
+      </c>
+      <c r="G17" s="3">
+        <v>45600</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -973,23 +999,26 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-227300</v>
+        <v>87900</v>
       </c>
       <c r="E18" s="3">
-        <v>-67000</v>
+        <v>-232100</v>
       </c>
       <c r="F18" s="3">
-        <v>-42900</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>-68400</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-43800</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,23 +1050,24 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6000</v>
+        <v>-12300</v>
       </c>
       <c r="E20" s="3">
-        <v>7500</v>
+        <v>6100</v>
       </c>
       <c r="F20" s="3">
+        <v>7700</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1800</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1047,23 +1080,26 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-219900</v>
+        <v>77800</v>
       </c>
       <c r="E21" s="3">
-        <v>-58500</v>
+        <v>-224500</v>
       </c>
       <c r="F21" s="3">
-        <v>-44500</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>-59700</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-45400</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1077,24 +1113,27 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>900</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1107,23 +1146,26 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-221800</v>
+        <v>75400</v>
       </c>
       <c r="E23" s="3">
-        <v>-61300</v>
+        <v>-226500</v>
       </c>
       <c r="F23" s="3">
-        <v>-45600</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>-62600</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-46500</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1137,23 +1179,26 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1167,9 +1212,12 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,23 +1245,26 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-221800</v>
+        <v>73500</v>
       </c>
       <c r="E26" s="3">
-        <v>-61500</v>
+        <v>-226500</v>
       </c>
       <c r="F26" s="3">
-        <v>-45600</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+        <v>-62800</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-46500</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1227,23 +1278,26 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-226900</v>
+        <v>73500</v>
       </c>
       <c r="E27" s="3">
-        <v>-61500</v>
+        <v>-231700</v>
       </c>
       <c r="F27" s="3">
-        <v>-45600</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+        <v>-62800</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-46500</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1257,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,24 +1443,27 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6000</v>
+        <v>12300</v>
       </c>
       <c r="E32" s="3">
-        <v>-7500</v>
+        <v>-6100</v>
       </c>
       <c r="F32" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="G32" s="3">
         <v>1800</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1407,23 +1476,26 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-226900</v>
+        <v>73500</v>
       </c>
       <c r="E33" s="3">
-        <v>-61500</v>
+        <v>-231700</v>
       </c>
       <c r="F33" s="3">
-        <v>-45600</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+        <v>-62800</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-46500</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1437,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,23 +1542,26 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-226900</v>
+        <v>73500</v>
       </c>
       <c r="E35" s="3">
-        <v>-61500</v>
+        <v>-231700</v>
       </c>
       <c r="F35" s="3">
-        <v>-45600</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+        <v>-62800</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-46500</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1497,29 +1575,32 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1532,9 +1613,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,22 +1646,23 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>173800</v>
+        <v>742400</v>
       </c>
       <c r="E41" s="3">
-        <v>242700</v>
+        <v>177500</v>
       </c>
       <c r="F41" s="3">
-        <v>47000</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>247800</v>
+      </c>
+      <c r="G41" s="3">
+        <v>48000</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1590,9 +1676,12 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1600,13 +1689,13 @@
         <v>4900</v>
       </c>
       <c r="E42" s="3">
-        <v>32900</v>
+        <v>5000</v>
       </c>
       <c r="F42" s="3">
-        <v>40700</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
+        <v>33600</v>
+      </c>
+      <c r="G42" s="3">
+        <v>41500</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1620,24 +1709,27 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4500</v>
+        <v>69100</v>
       </c>
       <c r="E43" s="3">
-        <v>8700</v>
+        <v>4600</v>
       </c>
       <c r="F43" s="3">
+        <v>8900</v>
+      </c>
+      <c r="G43" s="3">
         <v>600</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1650,9 +1742,12 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1680,23 +1775,26 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>24800</v>
+        <v>17200</v>
       </c>
       <c r="E45" s="3">
-        <v>26900</v>
+        <v>25300</v>
       </c>
       <c r="F45" s="3">
-        <v>17400</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+        <v>27400</v>
+      </c>
+      <c r="G45" s="3">
+        <v>17700</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1710,23 +1808,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>208000</v>
+        <v>833700</v>
       </c>
       <c r="E46" s="3">
-        <v>311200</v>
+        <v>212400</v>
       </c>
       <c r="F46" s="3">
-        <v>105700</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>317800</v>
+      </c>
+      <c r="G46" s="3">
+        <v>107900</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1740,53 +1841,59 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>103700</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7100</v>
+        <v>6300</v>
       </c>
       <c r="E48" s="3">
-        <v>4200</v>
+        <v>7300</v>
       </c>
       <c r="F48" s="3">
-        <v>3400</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+        <v>4300</v>
+      </c>
+      <c r="G48" s="3">
+        <v>3500</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1800,23 +1907,26 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>47600</v>
+        <v>44200</v>
       </c>
       <c r="E49" s="3">
-        <v>47600</v>
+        <v>48600</v>
       </c>
       <c r="F49" s="3">
-        <v>47600</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+        <v>48600</v>
+      </c>
+      <c r="G49" s="3">
+        <v>48600</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,17 +2006,20 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2800</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2900</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -1917,12 +2036,15 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,23 +2072,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>265500</v>
+        <v>988100</v>
       </c>
       <c r="E54" s="3">
-        <v>363000</v>
+        <v>271100</v>
       </c>
       <c r="F54" s="3">
-        <v>156700</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>370700</v>
+      </c>
+      <c r="G54" s="3">
+        <v>160000</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1980,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,8 +2138,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2038,23 +2168,26 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7600</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>12200</v>
+        <v>7800</v>
       </c>
       <c r="F58" s="3">
-        <v>15100</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+        <v>12500</v>
+      </c>
+      <c r="G58" s="3">
+        <v>15400</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2068,23 +2201,26 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>82300</v>
+        <v>89900</v>
       </c>
       <c r="E59" s="3">
-        <v>40700</v>
+        <v>84000</v>
       </c>
       <c r="F59" s="3">
-        <v>14700</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>41500</v>
+      </c>
+      <c r="G59" s="3">
+        <v>15000</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2098,9 +2234,12 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2108,13 +2247,13 @@
         <v>89900</v>
       </c>
       <c r="E60" s="3">
-        <v>52900</v>
+        <v>91800</v>
       </c>
       <c r="F60" s="3">
-        <v>29800</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>54000</v>
+      </c>
+      <c r="G60" s="3">
+        <v>30400</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2128,23 +2267,26 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10400</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>10200</v>
+        <v>10600</v>
       </c>
       <c r="F61" s="3">
-        <v>17400</v>
+        <v>10500</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>17800</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2158,23 +2300,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1700</v>
+        <v>20400</v>
       </c>
       <c r="E62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F62" s="3">
         <v>400</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2188,9 +2333,12 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,23 +2432,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>102100</v>
+        <v>110200</v>
       </c>
       <c r="E66" s="3">
-        <v>63500</v>
+        <v>104200</v>
       </c>
       <c r="F66" s="3">
-        <v>93900</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>64900</v>
+      </c>
+      <c r="G66" s="3">
+        <v>95900</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2308,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,23 +2546,26 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>474300</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>445400</v>
+        <v>484300</v>
       </c>
       <c r="F70" s="3">
-        <v>108500</v>
+        <v>454800</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>110800</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,23 +2612,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-381100</v>
+        <v>-315700</v>
       </c>
       <c r="E72" s="3">
-        <v>-155000</v>
+        <v>-389100</v>
       </c>
       <c r="F72" s="3">
-        <v>-54700</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>-158300</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-55800</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,23 +2744,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-310900</v>
+        <v>877900</v>
       </c>
       <c r="E76" s="3">
-        <v>-145900</v>
+        <v>-317500</v>
       </c>
       <c r="F76" s="3">
-        <v>-45800</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>-149000</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-46800</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2592,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,29 +2810,32 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2657,23 +2848,26 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-226900</v>
+        <v>73500</v>
       </c>
       <c r="E81" s="3">
-        <v>-61500</v>
+        <v>-231700</v>
       </c>
       <c r="F81" s="3">
-        <v>-45600</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+        <v>-62800</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-46500</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2687,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,22 +2899,23 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E83" s="3">
         <v>1500</v>
       </c>
-      <c r="E83" s="3">
-        <v>1000</v>
-      </c>
       <c r="F83" s="3">
-        <v>200</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+        <v>1100</v>
+      </c>
+      <c r="G83" s="3">
+        <v>300</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2731,9 +2929,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,23 +3094,26 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-132600</v>
+        <v>67600</v>
       </c>
       <c r="E89" s="3">
-        <v>-42900</v>
+        <v>-135400</v>
       </c>
       <c r="F89" s="3">
-        <v>-38500</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>-43800</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-39300</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,22 +3145,23 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2200</v>
       </c>
-      <c r="F91" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>-3200</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2955,9 +3175,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,23 +3241,26 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>32500</v>
+        <v>-31500</v>
       </c>
       <c r="E94" s="3">
+        <v>33100</v>
+      </c>
+      <c r="F94" s="3">
         <v>1500</v>
       </c>
-      <c r="F94" s="3">
-        <v>-24100</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+      <c r="G94" s="3">
+        <v>-24600</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,23 +3421,26 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>23300</v>
+        <v>536700</v>
       </c>
       <c r="E100" s="3">
-        <v>226100</v>
+        <v>23800</v>
       </c>
       <c r="F100" s="3">
-        <v>115900</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+        <v>230800</v>
+      </c>
+      <c r="G100" s="3">
+        <v>118300</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3209,23 +3454,26 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2300</v>
+        <v>-16600</v>
       </c>
       <c r="E101" s="3">
-        <v>9100</v>
+        <v>2400</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+        <v>9300</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3239,23 +3487,26 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-74500</v>
+        <v>556300</v>
       </c>
       <c r="E102" s="3">
-        <v>193800</v>
+        <v>-76100</v>
       </c>
       <c r="F102" s="3">
-        <v>53300</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+        <v>197900</v>
+      </c>
+      <c r="G102" s="3">
+        <v>54400</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3269,7 +3520,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/IMAB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IMAB_YR_FIN.xlsx
@@ -718,13 +718,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>240700</v>
+        <v>237500</v>
       </c>
       <c r="E8" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="F8" s="3">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="G8" s="3">
         <v>1800</v>
@@ -832,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>153600</v>
+        <v>151600</v>
       </c>
       <c r="E12" s="3">
-        <v>131100</v>
+        <v>129400</v>
       </c>
       <c r="F12" s="3">
-        <v>66500</v>
+        <v>65600</v>
       </c>
       <c r="G12" s="3">
-        <v>41700</v>
+        <v>41100</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -898,10 +898,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-63600</v>
+        <v>-62800</v>
       </c>
       <c r="E14" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>152800</v>
+        <v>150800</v>
       </c>
       <c r="E17" s="3">
-        <v>236800</v>
+        <v>233700</v>
       </c>
       <c r="F17" s="3">
-        <v>76800</v>
+        <v>75800</v>
       </c>
       <c r="G17" s="3">
-        <v>45600</v>
+        <v>45000</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1009,16 +1009,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>87900</v>
+        <v>86700</v>
       </c>
       <c r="E18" s="3">
-        <v>-232100</v>
+        <v>-229100</v>
       </c>
       <c r="F18" s="3">
-        <v>-68400</v>
+        <v>-67500</v>
       </c>
       <c r="G18" s="3">
-        <v>-43800</v>
+        <v>-43300</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1057,13 +1057,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-12300</v>
+        <v>-12200</v>
       </c>
       <c r="E20" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="F20" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="G20" s="3">
         <v>-1800</v>
@@ -1090,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>77800</v>
+        <v>76700</v>
       </c>
       <c r="E21" s="3">
-        <v>-224500</v>
+        <v>-221600</v>
       </c>
       <c r="F21" s="3">
-        <v>-59700</v>
+        <v>-58900</v>
       </c>
       <c r="G21" s="3">
-        <v>-45400</v>
+        <v>-44800</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>75400</v>
+        <v>74400</v>
       </c>
       <c r="E23" s="3">
-        <v>-226500</v>
+        <v>-223600</v>
       </c>
       <c r="F23" s="3">
-        <v>-62600</v>
+        <v>-61800</v>
       </c>
       <c r="G23" s="3">
-        <v>-46500</v>
+        <v>-45900</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>73500</v>
+        <v>72500</v>
       </c>
       <c r="E26" s="3">
-        <v>-226500</v>
+        <v>-223600</v>
       </c>
       <c r="F26" s="3">
-        <v>-62800</v>
+        <v>-62000</v>
       </c>
       <c r="G26" s="3">
-        <v>-46500</v>
+        <v>-45900</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>73500</v>
+        <v>72500</v>
       </c>
       <c r="E27" s="3">
-        <v>-231700</v>
+        <v>-228700</v>
       </c>
       <c r="F27" s="3">
-        <v>-62800</v>
+        <v>-62000</v>
       </c>
       <c r="G27" s="3">
-        <v>-46500</v>
+        <v>-45900</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1453,13 +1453,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>12300</v>
+        <v>12200</v>
       </c>
       <c r="E32" s="3">
-        <v>-6100</v>
+        <v>-6000</v>
       </c>
       <c r="F32" s="3">
-        <v>-7700</v>
+        <v>-7600</v>
       </c>
       <c r="G32" s="3">
         <v>1800</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>73500</v>
+        <v>72500</v>
       </c>
       <c r="E33" s="3">
-        <v>-231700</v>
+        <v>-228700</v>
       </c>
       <c r="F33" s="3">
-        <v>-62800</v>
+        <v>-62000</v>
       </c>
       <c r="G33" s="3">
-        <v>-46500</v>
+        <v>-45900</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>73500</v>
+        <v>72500</v>
       </c>
       <c r="E35" s="3">
-        <v>-231700</v>
+        <v>-228700</v>
       </c>
       <c r="F35" s="3">
-        <v>-62800</v>
+        <v>-62000</v>
       </c>
       <c r="G35" s="3">
-        <v>-46500</v>
+        <v>-45900</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>742400</v>
+        <v>732800</v>
       </c>
       <c r="E41" s="3">
-        <v>177500</v>
+        <v>175100</v>
       </c>
       <c r="F41" s="3">
-        <v>247800</v>
+        <v>244600</v>
       </c>
       <c r="G41" s="3">
-        <v>48000</v>
+        <v>47400</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1689,13 +1689,13 @@
         <v>4900</v>
       </c>
       <c r="E42" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="F42" s="3">
-        <v>33600</v>
+        <v>33200</v>
       </c>
       <c r="G42" s="3">
-        <v>41500</v>
+        <v>41000</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1719,13 +1719,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>69100</v>
+        <v>68200</v>
       </c>
       <c r="E43" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="F43" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="G43" s="3">
         <v>600</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17200</v>
+        <v>17000</v>
       </c>
       <c r="E45" s="3">
-        <v>25300</v>
+        <v>25000</v>
       </c>
       <c r="F45" s="3">
-        <v>27400</v>
+        <v>27100</v>
       </c>
       <c r="G45" s="3">
-        <v>17700</v>
+        <v>17500</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>833700</v>
+        <v>822800</v>
       </c>
       <c r="E46" s="3">
-        <v>212400</v>
+        <v>209600</v>
       </c>
       <c r="F46" s="3">
-        <v>317800</v>
+        <v>313600</v>
       </c>
       <c r="G46" s="3">
-        <v>107900</v>
+        <v>106500</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1851,7 +1851,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>103700</v>
+        <v>102400</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="E48" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="F48" s="3">
         <v>4300</v>
       </c>
       <c r="G48" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1917,16 +1917,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>44200</v>
+        <v>43600</v>
       </c>
       <c r="E49" s="3">
-        <v>48600</v>
+        <v>48000</v>
       </c>
       <c r="F49" s="3">
-        <v>48600</v>
+        <v>48000</v>
       </c>
       <c r="G49" s="3">
-        <v>48600</v>
+        <v>48000</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2019,7 +2019,7 @@
         <v>300</v>
       </c>
       <c r="E52" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>988100</v>
+        <v>975300</v>
       </c>
       <c r="E54" s="3">
-        <v>271100</v>
+        <v>267600</v>
       </c>
       <c r="F54" s="3">
-        <v>370700</v>
+        <v>365800</v>
       </c>
       <c r="G54" s="3">
-        <v>160000</v>
+        <v>157900</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2181,13 +2181,13 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="F58" s="3">
-        <v>12500</v>
+        <v>12300</v>
       </c>
       <c r="G58" s="3">
-        <v>15400</v>
+        <v>15200</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>89900</v>
+        <v>88700</v>
       </c>
       <c r="E59" s="3">
-        <v>84000</v>
+        <v>82900</v>
       </c>
       <c r="F59" s="3">
-        <v>41500</v>
+        <v>41000</v>
       </c>
       <c r="G59" s="3">
-        <v>15000</v>
+        <v>14800</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>89900</v>
+        <v>88700</v>
       </c>
       <c r="E60" s="3">
-        <v>91800</v>
+        <v>90600</v>
       </c>
       <c r="F60" s="3">
-        <v>54000</v>
+        <v>53300</v>
       </c>
       <c r="G60" s="3">
-        <v>30400</v>
+        <v>30000</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2280,13 +2280,13 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="F61" s="3">
-        <v>10500</v>
+        <v>10300</v>
       </c>
       <c r="G61" s="3">
-        <v>17800</v>
+        <v>17600</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>20400</v>
+        <v>20100</v>
       </c>
       <c r="E62" s="3">
         <v>1800</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>110200</v>
+        <v>108800</v>
       </c>
       <c r="E66" s="3">
-        <v>104200</v>
+        <v>102900</v>
       </c>
       <c r="F66" s="3">
-        <v>64900</v>
+        <v>64000</v>
       </c>
       <c r="G66" s="3">
-        <v>95900</v>
+        <v>94700</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2559,13 +2559,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>484300</v>
+        <v>478000</v>
       </c>
       <c r="F70" s="3">
-        <v>454800</v>
+        <v>448900</v>
       </c>
       <c r="G70" s="3">
-        <v>110800</v>
+        <v>109400</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-315700</v>
+        <v>-311500</v>
       </c>
       <c r="E72" s="3">
-        <v>-389100</v>
+        <v>-384100</v>
       </c>
       <c r="F72" s="3">
-        <v>-158300</v>
+        <v>-156200</v>
       </c>
       <c r="G72" s="3">
-        <v>-55800</v>
+        <v>-55100</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>877900</v>
+        <v>866500</v>
       </c>
       <c r="E76" s="3">
-        <v>-317500</v>
+        <v>-313300</v>
       </c>
       <c r="F76" s="3">
-        <v>-149000</v>
+        <v>-147100</v>
       </c>
       <c r="G76" s="3">
-        <v>-46800</v>
+        <v>-46200</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>73500</v>
+        <v>72500</v>
       </c>
       <c r="E81" s="3">
-        <v>-231700</v>
+        <v>-228700</v>
       </c>
       <c r="F81" s="3">
-        <v>-62800</v>
+        <v>-62000</v>
       </c>
       <c r="G81" s="3">
-        <v>-46500</v>
+        <v>-45900</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2912,7 +2912,7 @@
         <v>1500</v>
       </c>
       <c r="F83" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G83" s="3">
         <v>300</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>67600</v>
+        <v>66800</v>
       </c>
       <c r="E89" s="3">
-        <v>-135400</v>
+        <v>-133700</v>
       </c>
       <c r="F89" s="3">
-        <v>-43800</v>
+        <v>-43200</v>
       </c>
       <c r="G89" s="3">
-        <v>-39300</v>
+        <v>-38800</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3161,7 +3161,7 @@
         <v>-2200</v>
       </c>
       <c r="G91" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3251,16 +3251,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-31500</v>
+        <v>-31100</v>
       </c>
       <c r="E94" s="3">
-        <v>33100</v>
+        <v>32700</v>
       </c>
       <c r="F94" s="3">
         <v>1500</v>
       </c>
       <c r="G94" s="3">
-        <v>-24600</v>
+        <v>-24300</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3431,16 +3431,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>536700</v>
+        <v>529800</v>
       </c>
       <c r="E100" s="3">
-        <v>23800</v>
+        <v>23500</v>
       </c>
       <c r="F100" s="3">
-        <v>230800</v>
+        <v>227800</v>
       </c>
       <c r="G100" s="3">
-        <v>118300</v>
+        <v>116800</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3464,13 +3464,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-16600</v>
+        <v>-16400</v>
       </c>
       <c r="E101" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="F101" s="3">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -3497,16 +3497,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>556300</v>
+        <v>549000</v>
       </c>
       <c r="E102" s="3">
-        <v>-76100</v>
+        <v>-75100</v>
       </c>
       <c r="F102" s="3">
-        <v>197900</v>
+        <v>195300</v>
       </c>
       <c r="G102" s="3">
-        <v>54400</v>
+        <v>53700</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/IMAB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IMAB_YR_FIN.xlsx
@@ -718,13 +718,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>237500</v>
+        <v>241500</v>
       </c>
       <c r="E8" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="F8" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="G8" s="3">
         <v>1800</v>
@@ -832,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>151600</v>
+        <v>154200</v>
       </c>
       <c r="E12" s="3">
-        <v>129400</v>
+        <v>131600</v>
       </c>
       <c r="F12" s="3">
-        <v>65600</v>
+        <v>66700</v>
       </c>
       <c r="G12" s="3">
-        <v>41100</v>
+        <v>41800</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -898,10 +898,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-62800</v>
+        <v>-63800</v>
       </c>
       <c r="E14" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>150800</v>
+        <v>153400</v>
       </c>
       <c r="E17" s="3">
-        <v>233700</v>
+        <v>237700</v>
       </c>
       <c r="F17" s="3">
-        <v>75800</v>
+        <v>77100</v>
       </c>
       <c r="G17" s="3">
-        <v>45000</v>
+        <v>45800</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1009,16 +1009,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>86700</v>
+        <v>88200</v>
       </c>
       <c r="E18" s="3">
-        <v>-229100</v>
+        <v>-233000</v>
       </c>
       <c r="F18" s="3">
-        <v>-67500</v>
+        <v>-68700</v>
       </c>
       <c r="G18" s="3">
-        <v>-43300</v>
+        <v>-44000</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1057,13 +1057,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-12200</v>
+        <v>-12400</v>
       </c>
       <c r="E20" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="F20" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="G20" s="3">
         <v>-1800</v>
@@ -1090,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>76700</v>
+        <v>78000</v>
       </c>
       <c r="E21" s="3">
-        <v>-221600</v>
+        <v>-225300</v>
       </c>
       <c r="F21" s="3">
-        <v>-58900</v>
+        <v>-59900</v>
       </c>
       <c r="G21" s="3">
-        <v>-44800</v>
+        <v>-45600</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>74400</v>
+        <v>75600</v>
       </c>
       <c r="E23" s="3">
-        <v>-223600</v>
+        <v>-227300</v>
       </c>
       <c r="F23" s="3">
-        <v>-61800</v>
+        <v>-62800</v>
       </c>
       <c r="G23" s="3">
-        <v>-45900</v>
+        <v>-46700</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>72500</v>
+        <v>73700</v>
       </c>
       <c r="E26" s="3">
-        <v>-223600</v>
+        <v>-227300</v>
       </c>
       <c r="F26" s="3">
-        <v>-62000</v>
+        <v>-63100</v>
       </c>
       <c r="G26" s="3">
-        <v>-45900</v>
+        <v>-46700</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>72500</v>
+        <v>73700</v>
       </c>
       <c r="E27" s="3">
-        <v>-228700</v>
+        <v>-232500</v>
       </c>
       <c r="F27" s="3">
-        <v>-62000</v>
+        <v>-63100</v>
       </c>
       <c r="G27" s="3">
-        <v>-45900</v>
+        <v>-46700</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1453,13 +1453,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>12200</v>
+        <v>12400</v>
       </c>
       <c r="E32" s="3">
-        <v>-6000</v>
+        <v>-6100</v>
       </c>
       <c r="F32" s="3">
-        <v>-7600</v>
+        <v>-7700</v>
       </c>
       <c r="G32" s="3">
         <v>1800</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>72500</v>
+        <v>73700</v>
       </c>
       <c r="E33" s="3">
-        <v>-228700</v>
+        <v>-232500</v>
       </c>
       <c r="F33" s="3">
-        <v>-62000</v>
+        <v>-63100</v>
       </c>
       <c r="G33" s="3">
-        <v>-45900</v>
+        <v>-46700</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>72500</v>
+        <v>73700</v>
       </c>
       <c r="E35" s="3">
-        <v>-228700</v>
+        <v>-232500</v>
       </c>
       <c r="F35" s="3">
-        <v>-62000</v>
+        <v>-63100</v>
       </c>
       <c r="G35" s="3">
-        <v>-45900</v>
+        <v>-46700</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>732800</v>
+        <v>745000</v>
       </c>
       <c r="E41" s="3">
-        <v>175100</v>
+        <v>178100</v>
       </c>
       <c r="F41" s="3">
-        <v>244600</v>
+        <v>248700</v>
       </c>
       <c r="G41" s="3">
-        <v>47400</v>
+        <v>48200</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1689,13 +1689,13 @@
         <v>4900</v>
       </c>
       <c r="E42" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="F42" s="3">
-        <v>33200</v>
+        <v>33700</v>
       </c>
       <c r="G42" s="3">
-        <v>41000</v>
+        <v>41700</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1719,13 +1719,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>68200</v>
+        <v>69400</v>
       </c>
       <c r="E43" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="F43" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="G43" s="3">
         <v>600</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17000</v>
+        <v>17300</v>
       </c>
       <c r="E45" s="3">
-        <v>25000</v>
+        <v>25400</v>
       </c>
       <c r="F45" s="3">
-        <v>27100</v>
+        <v>27500</v>
       </c>
       <c r="G45" s="3">
-        <v>17500</v>
+        <v>17800</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>822800</v>
+        <v>836600</v>
       </c>
       <c r="E46" s="3">
-        <v>209600</v>
+        <v>213100</v>
       </c>
       <c r="F46" s="3">
-        <v>313600</v>
+        <v>318900</v>
       </c>
       <c r="G46" s="3">
-        <v>106500</v>
+        <v>108300</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1851,7 +1851,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>102400</v>
+        <v>104100</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="E48" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="F48" s="3">
         <v>4300</v>
       </c>
       <c r="G48" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1917,16 +1917,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>43600</v>
+        <v>44300</v>
       </c>
       <c r="E49" s="3">
-        <v>48000</v>
+        <v>48800</v>
       </c>
       <c r="F49" s="3">
-        <v>48000</v>
+        <v>48800</v>
       </c>
       <c r="G49" s="3">
-        <v>48000</v>
+        <v>48800</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2019,7 +2019,7 @@
         <v>300</v>
       </c>
       <c r="E52" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>975300</v>
+        <v>991600</v>
       </c>
       <c r="E54" s="3">
-        <v>267600</v>
+        <v>272000</v>
       </c>
       <c r="F54" s="3">
-        <v>365800</v>
+        <v>372000</v>
       </c>
       <c r="G54" s="3">
-        <v>157900</v>
+        <v>160500</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2181,13 +2181,13 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="F58" s="3">
-        <v>12300</v>
+        <v>12500</v>
       </c>
       <c r="G58" s="3">
-        <v>15200</v>
+        <v>15500</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>88700</v>
+        <v>90200</v>
       </c>
       <c r="E59" s="3">
-        <v>82900</v>
+        <v>84300</v>
       </c>
       <c r="F59" s="3">
-        <v>41000</v>
+        <v>41700</v>
       </c>
       <c r="G59" s="3">
-        <v>14800</v>
+        <v>15100</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>88700</v>
+        <v>90200</v>
       </c>
       <c r="E60" s="3">
-        <v>90600</v>
+        <v>92100</v>
       </c>
       <c r="F60" s="3">
-        <v>53300</v>
+        <v>54200</v>
       </c>
       <c r="G60" s="3">
-        <v>30000</v>
+        <v>30600</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2280,13 +2280,13 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F61" s="3">
         <v>10500</v>
       </c>
-      <c r="F61" s="3">
-        <v>10300</v>
-      </c>
       <c r="G61" s="3">
-        <v>17600</v>
+        <v>17800</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>20100</v>
+        <v>20400</v>
       </c>
       <c r="E62" s="3">
         <v>1800</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>108800</v>
+        <v>110600</v>
       </c>
       <c r="E66" s="3">
-        <v>102900</v>
+        <v>104600</v>
       </c>
       <c r="F66" s="3">
-        <v>64000</v>
+        <v>65100</v>
       </c>
       <c r="G66" s="3">
-        <v>94700</v>
+        <v>96300</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2559,13 +2559,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>478000</v>
+        <v>486000</v>
       </c>
       <c r="F70" s="3">
-        <v>448900</v>
+        <v>456400</v>
       </c>
       <c r="G70" s="3">
-        <v>109400</v>
+        <v>111200</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-311500</v>
+        <v>-316800</v>
       </c>
       <c r="E72" s="3">
-        <v>-384100</v>
+        <v>-390500</v>
       </c>
       <c r="F72" s="3">
-        <v>-156200</v>
+        <v>-158800</v>
       </c>
       <c r="G72" s="3">
-        <v>-55100</v>
+        <v>-56000</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>866500</v>
+        <v>881000</v>
       </c>
       <c r="E76" s="3">
-        <v>-313300</v>
+        <v>-318600</v>
       </c>
       <c r="F76" s="3">
-        <v>-147100</v>
+        <v>-149500</v>
       </c>
       <c r="G76" s="3">
-        <v>-46200</v>
+        <v>-46900</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>72500</v>
+        <v>73700</v>
       </c>
       <c r="E81" s="3">
-        <v>-228700</v>
+        <v>-232500</v>
       </c>
       <c r="F81" s="3">
-        <v>-62000</v>
+        <v>-63100</v>
       </c>
       <c r="G81" s="3">
-        <v>-45900</v>
+        <v>-46700</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2912,7 +2912,7 @@
         <v>1500</v>
       </c>
       <c r="F83" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G83" s="3">
         <v>300</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>66800</v>
+        <v>67900</v>
       </c>
       <c r="E89" s="3">
-        <v>-133700</v>
+        <v>-135900</v>
       </c>
       <c r="F89" s="3">
-        <v>-43200</v>
+        <v>-43900</v>
       </c>
       <c r="G89" s="3">
-        <v>-38800</v>
+        <v>-39500</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3152,16 +3152,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="E91" s="3">
         <v>-1900</v>
       </c>
       <c r="F91" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="G91" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3251,16 +3251,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-31100</v>
+        <v>-31600</v>
       </c>
       <c r="E94" s="3">
-        <v>32700</v>
+        <v>33300</v>
       </c>
       <c r="F94" s="3">
         <v>1500</v>
       </c>
       <c r="G94" s="3">
-        <v>-24300</v>
+        <v>-24700</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3431,16 +3431,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>529800</v>
+        <v>538600</v>
       </c>
       <c r="E100" s="3">
-        <v>23500</v>
+        <v>23900</v>
       </c>
       <c r="F100" s="3">
-        <v>227800</v>
+        <v>231700</v>
       </c>
       <c r="G100" s="3">
-        <v>116800</v>
+        <v>118800</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3464,13 +3464,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-16400</v>
+        <v>-16700</v>
       </c>
       <c r="E101" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="F101" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -3497,16 +3497,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>549000</v>
+        <v>558200</v>
       </c>
       <c r="E102" s="3">
-        <v>-75100</v>
+        <v>-76300</v>
       </c>
       <c r="F102" s="3">
-        <v>195300</v>
+        <v>198600</v>
       </c>
       <c r="G102" s="3">
-        <v>53700</v>
+        <v>54600</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/IMAB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IMAB_YR_FIN.xlsx
@@ -718,13 +718,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>241500</v>
+        <v>243400</v>
       </c>
       <c r="E8" s="3">
         <v>4700</v>
       </c>
       <c r="F8" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="G8" s="3">
         <v>1800</v>
@@ -832,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>154200</v>
+        <v>155300</v>
       </c>
       <c r="E12" s="3">
-        <v>131600</v>
+        <v>132600</v>
       </c>
       <c r="F12" s="3">
-        <v>66700</v>
+        <v>67200</v>
       </c>
       <c r="G12" s="3">
-        <v>41800</v>
+        <v>42100</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -898,7 +898,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-63800</v>
+        <v>-64300</v>
       </c>
       <c r="E14" s="3">
         <v>3600</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>153400</v>
+        <v>154500</v>
       </c>
       <c r="E17" s="3">
-        <v>237700</v>
+        <v>239500</v>
       </c>
       <c r="F17" s="3">
-        <v>77100</v>
+        <v>77700</v>
       </c>
       <c r="G17" s="3">
-        <v>45800</v>
+        <v>46100</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1009,16 +1009,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>88200</v>
+        <v>88800</v>
       </c>
       <c r="E18" s="3">
-        <v>-233000</v>
+        <v>-234700</v>
       </c>
       <c r="F18" s="3">
-        <v>-68700</v>
+        <v>-69200</v>
       </c>
       <c r="G18" s="3">
-        <v>-44000</v>
+        <v>-44300</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1057,13 +1057,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-12400</v>
+        <v>-12500</v>
       </c>
       <c r="E20" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="F20" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="G20" s="3">
         <v>-1800</v>
@@ -1090,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>78000</v>
+        <v>78600</v>
       </c>
       <c r="E21" s="3">
-        <v>-225300</v>
+        <v>-227000</v>
       </c>
       <c r="F21" s="3">
-        <v>-59900</v>
+        <v>-60400</v>
       </c>
       <c r="G21" s="3">
-        <v>-45600</v>
+        <v>-45900</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1123,7 +1123,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>500</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>75600</v>
+        <v>76200</v>
       </c>
       <c r="E23" s="3">
-        <v>-227300</v>
+        <v>-229100</v>
       </c>
       <c r="F23" s="3">
-        <v>-62800</v>
+        <v>-63300</v>
       </c>
       <c r="G23" s="3">
-        <v>-46700</v>
+        <v>-47100</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>73700</v>
+        <v>74300</v>
       </c>
       <c r="E26" s="3">
-        <v>-227300</v>
+        <v>-229100</v>
       </c>
       <c r="F26" s="3">
-        <v>-63100</v>
+        <v>-63600</v>
       </c>
       <c r="G26" s="3">
-        <v>-46700</v>
+        <v>-47100</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>73700</v>
+        <v>74300</v>
       </c>
       <c r="E27" s="3">
-        <v>-232500</v>
+        <v>-234300</v>
       </c>
       <c r="F27" s="3">
-        <v>-63100</v>
+        <v>-63600</v>
       </c>
       <c r="G27" s="3">
-        <v>-46700</v>
+        <v>-47100</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1453,13 +1453,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>12400</v>
+        <v>12500</v>
       </c>
       <c r="E32" s="3">
-        <v>-6100</v>
+        <v>-6200</v>
       </c>
       <c r="F32" s="3">
-        <v>-7700</v>
+        <v>-7800</v>
       </c>
       <c r="G32" s="3">
         <v>1800</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>73700</v>
+        <v>74300</v>
       </c>
       <c r="E33" s="3">
-        <v>-232500</v>
+        <v>-234300</v>
       </c>
       <c r="F33" s="3">
-        <v>-63100</v>
+        <v>-63600</v>
       </c>
       <c r="G33" s="3">
-        <v>-46700</v>
+        <v>-47100</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>73700</v>
+        <v>74300</v>
       </c>
       <c r="E35" s="3">
-        <v>-232500</v>
+        <v>-234300</v>
       </c>
       <c r="F35" s="3">
-        <v>-63100</v>
+        <v>-63600</v>
       </c>
       <c r="G35" s="3">
-        <v>-46700</v>
+        <v>-47100</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>745000</v>
+        <v>750700</v>
       </c>
       <c r="E41" s="3">
-        <v>178100</v>
+        <v>179400</v>
       </c>
       <c r="F41" s="3">
-        <v>248700</v>
+        <v>250600</v>
       </c>
       <c r="G41" s="3">
-        <v>48200</v>
+        <v>48600</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1686,16 +1686,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="E42" s="3">
         <v>5000</v>
       </c>
       <c r="F42" s="3">
-        <v>33700</v>
+        <v>34000</v>
       </c>
       <c r="G42" s="3">
-        <v>41700</v>
+        <v>42000</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1719,13 +1719,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>69400</v>
+        <v>69900</v>
       </c>
       <c r="E43" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="F43" s="3">
-        <v>8900</v>
+        <v>9000</v>
       </c>
       <c r="G43" s="3">
         <v>600</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17300</v>
+        <v>17400</v>
       </c>
       <c r="E45" s="3">
-        <v>25400</v>
+        <v>25600</v>
       </c>
       <c r="F45" s="3">
-        <v>27500</v>
+        <v>27700</v>
       </c>
       <c r="G45" s="3">
-        <v>17800</v>
+        <v>17900</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>836600</v>
+        <v>843000</v>
       </c>
       <c r="E46" s="3">
-        <v>213100</v>
+        <v>214800</v>
       </c>
       <c r="F46" s="3">
-        <v>318900</v>
+        <v>321300</v>
       </c>
       <c r="G46" s="3">
-        <v>108300</v>
+        <v>109100</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1851,7 +1851,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>104100</v>
+        <v>104900</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -1884,13 +1884,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="E48" s="3">
         <v>7300</v>
       </c>
       <c r="F48" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="G48" s="3">
         <v>3500</v>
@@ -1917,16 +1917,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>44300</v>
+        <v>44600</v>
       </c>
       <c r="E49" s="3">
-        <v>48800</v>
+        <v>49100</v>
       </c>
       <c r="F49" s="3">
-        <v>48800</v>
+        <v>49100</v>
       </c>
       <c r="G49" s="3">
-        <v>48800</v>
+        <v>49100</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>991600</v>
+        <v>999200</v>
       </c>
       <c r="E54" s="3">
-        <v>272000</v>
+        <v>274100</v>
       </c>
       <c r="F54" s="3">
-        <v>372000</v>
+        <v>374800</v>
       </c>
       <c r="G54" s="3">
-        <v>160500</v>
+        <v>161800</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2181,13 +2181,13 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="F58" s="3">
-        <v>12500</v>
+        <v>12600</v>
       </c>
       <c r="G58" s="3">
-        <v>15500</v>
+        <v>15600</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>90200</v>
+        <v>90900</v>
       </c>
       <c r="E59" s="3">
-        <v>84300</v>
+        <v>85000</v>
       </c>
       <c r="F59" s="3">
-        <v>41700</v>
+        <v>42000</v>
       </c>
       <c r="G59" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>90200</v>
+        <v>90900</v>
       </c>
       <c r="E60" s="3">
-        <v>92100</v>
+        <v>92800</v>
       </c>
       <c r="F60" s="3">
-        <v>54200</v>
+        <v>54600</v>
       </c>
       <c r="G60" s="3">
-        <v>30600</v>
+        <v>30800</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2280,13 +2280,13 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>10700</v>
+        <v>10800</v>
       </c>
       <c r="F61" s="3">
-        <v>10500</v>
+        <v>10600</v>
       </c>
       <c r="G61" s="3">
-        <v>17800</v>
+        <v>18000</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>20400</v>
+        <v>20600</v>
       </c>
       <c r="E62" s="3">
         <v>1800</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>110600</v>
+        <v>111500</v>
       </c>
       <c r="E66" s="3">
-        <v>104600</v>
+        <v>105400</v>
       </c>
       <c r="F66" s="3">
-        <v>65100</v>
+        <v>65600</v>
       </c>
       <c r="G66" s="3">
-        <v>96300</v>
+        <v>97000</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2559,13 +2559,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>486000</v>
+        <v>489700</v>
       </c>
       <c r="F70" s="3">
-        <v>456400</v>
+        <v>459900</v>
       </c>
       <c r="G70" s="3">
-        <v>111200</v>
+        <v>112100</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-316800</v>
+        <v>-319200</v>
       </c>
       <c r="E72" s="3">
-        <v>-390500</v>
+        <v>-393500</v>
       </c>
       <c r="F72" s="3">
-        <v>-158800</v>
+        <v>-160000</v>
       </c>
       <c r="G72" s="3">
-        <v>-56000</v>
+        <v>-56500</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>881000</v>
+        <v>887700</v>
       </c>
       <c r="E76" s="3">
-        <v>-318600</v>
+        <v>-321000</v>
       </c>
       <c r="F76" s="3">
-        <v>-149500</v>
+        <v>-150700</v>
       </c>
       <c r="G76" s="3">
-        <v>-46900</v>
+        <v>-47300</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>73700</v>
+        <v>74300</v>
       </c>
       <c r="E81" s="3">
-        <v>-232500</v>
+        <v>-234300</v>
       </c>
       <c r="F81" s="3">
-        <v>-63100</v>
+        <v>-63600</v>
       </c>
       <c r="G81" s="3">
-        <v>-46700</v>
+        <v>-47100</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2906,10 +2906,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E83" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F83" s="3">
         <v>1100</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>67900</v>
+        <v>68400</v>
       </c>
       <c r="E89" s="3">
-        <v>-135900</v>
+        <v>-136900</v>
       </c>
       <c r="F89" s="3">
-        <v>-43900</v>
+        <v>-44300</v>
       </c>
       <c r="G89" s="3">
-        <v>-39500</v>
+        <v>-39800</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3251,16 +3251,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-31600</v>
+        <v>-31900</v>
       </c>
       <c r="E94" s="3">
-        <v>33300</v>
+        <v>33500</v>
       </c>
       <c r="F94" s="3">
         <v>1500</v>
       </c>
       <c r="G94" s="3">
-        <v>-24700</v>
+        <v>-24900</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3431,16 +3431,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>538600</v>
+        <v>542800</v>
       </c>
       <c r="E100" s="3">
-        <v>23900</v>
+        <v>24100</v>
       </c>
       <c r="F100" s="3">
-        <v>231700</v>
+        <v>233400</v>
       </c>
       <c r="G100" s="3">
-        <v>118800</v>
+        <v>119700</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3464,7 +3464,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-16700</v>
+        <v>-16800</v>
       </c>
       <c r="E101" s="3">
         <v>2400</v>
@@ -3497,16 +3497,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>558200</v>
+        <v>562500</v>
       </c>
       <c r="E102" s="3">
-        <v>-76300</v>
+        <v>-76900</v>
       </c>
       <c r="F102" s="3">
-        <v>198600</v>
+        <v>200100</v>
       </c>
       <c r="G102" s="3">
-        <v>54600</v>
+        <v>55000</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/IMAB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IMAB_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="92">
   <si>
     <t>IMAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,40 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,26 +711,29 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>243400</v>
+        <v>13000</v>
       </c>
       <c r="E8" s="3">
-        <v>4700</v>
+        <v>227300</v>
       </c>
       <c r="F8" s="3">
-        <v>8500</v>
+        <v>4400</v>
       </c>
       <c r="G8" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>7900</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1700</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -744,14 +747,17 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>6800</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -777,14 +783,17 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>6100</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -810,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,25 +838,26 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>155300</v>
+        <v>178700</v>
       </c>
       <c r="E12" s="3">
-        <v>132600</v>
+        <v>145100</v>
       </c>
       <c r="F12" s="3">
-        <v>67200</v>
+        <v>123800</v>
       </c>
       <c r="G12" s="3">
-        <v>42100</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
+        <v>62800</v>
+      </c>
+      <c r="H12" s="3">
+        <v>39400</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,20 +907,23 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>-64300</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>3600</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+        <v>-60100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3400</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -921,12 +940,15 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -957,9 +979,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,25 +995,26 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>154500</v>
+        <v>318200</v>
       </c>
       <c r="E17" s="3">
-        <v>239500</v>
+        <v>144300</v>
       </c>
       <c r="F17" s="3">
-        <v>77700</v>
+        <v>223700</v>
       </c>
       <c r="G17" s="3">
-        <v>46100</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>72600</v>
+      </c>
+      <c r="H17" s="3">
+        <v>43100</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1002,26 +1028,29 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>88800</v>
+        <v>-305200</v>
       </c>
       <c r="E18" s="3">
-        <v>-234700</v>
+        <v>83000</v>
       </c>
       <c r="F18" s="3">
-        <v>-69200</v>
+        <v>-219300</v>
       </c>
       <c r="G18" s="3">
-        <v>-44300</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+        <v>-64600</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-41400</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1035,9 +1064,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,25 +1083,26 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-12500</v>
+        <v>-38800</v>
       </c>
       <c r="E20" s="3">
-        <v>6200</v>
+        <v>-11700</v>
       </c>
       <c r="F20" s="3">
-        <v>7800</v>
+        <v>5800</v>
       </c>
       <c r="G20" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+        <v>7300</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-1700</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1083,26 +1116,29 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>78600</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-227000</v>
+        <v>73500</v>
       </c>
       <c r="F21" s="3">
-        <v>-60400</v>
+        <v>-212100</v>
       </c>
       <c r="G21" s="3">
-        <v>-45900</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>-56400</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-42900</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1116,26 +1152,29 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>200</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="G22" s="3">
-        <v>900</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+        <v>1700</v>
+      </c>
+      <c r="H22" s="3">
+        <v>800</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1149,26 +1188,29 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>76200</v>
+        <v>-344000</v>
       </c>
       <c r="E23" s="3">
-        <v>-229100</v>
+        <v>71200</v>
       </c>
       <c r="F23" s="3">
-        <v>-63300</v>
+        <v>-214000</v>
       </c>
       <c r="G23" s="3">
-        <v>-47100</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+        <v>-59100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-43900</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1182,26 +1224,29 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1900</v>
+        <v>-500</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1215,9 +1260,12 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,26 +1296,29 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>74300</v>
+        <v>-343600</v>
       </c>
       <c r="E26" s="3">
-        <v>-229100</v>
+        <v>69400</v>
       </c>
       <c r="F26" s="3">
-        <v>-63600</v>
+        <v>-214000</v>
       </c>
       <c r="G26" s="3">
-        <v>-47100</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+        <v>-59400</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-43900</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1281,26 +1332,29 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>74300</v>
+        <v>-343600</v>
       </c>
       <c r="E27" s="3">
-        <v>-234300</v>
+        <v>69400</v>
       </c>
       <c r="F27" s="3">
-        <v>-63600</v>
+        <v>-218800</v>
       </c>
       <c r="G27" s="3">
-        <v>-47100</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+        <v>-59400</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-43900</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1314,9 +1368,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,26 +1512,29 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>12500</v>
+        <v>38800</v>
       </c>
       <c r="E32" s="3">
-        <v>-6200</v>
+        <v>11700</v>
       </c>
       <c r="F32" s="3">
-        <v>-7800</v>
+        <v>-5800</v>
       </c>
       <c r="G32" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+        <v>-7300</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1700</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1479,26 +1548,29 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>74300</v>
+        <v>-343600</v>
       </c>
       <c r="E33" s="3">
-        <v>-234300</v>
+        <v>69400</v>
       </c>
       <c r="F33" s="3">
-        <v>-63600</v>
+        <v>-218800</v>
       </c>
       <c r="G33" s="3">
-        <v>-47100</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+        <v>-59400</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-43900</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1512,9 +1584,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,26 +1620,29 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>74300</v>
+        <v>-343600</v>
       </c>
       <c r="E35" s="3">
-        <v>-234300</v>
+        <v>69400</v>
       </c>
       <c r="F35" s="3">
-        <v>-63600</v>
+        <v>-218800</v>
       </c>
       <c r="G35" s="3">
-        <v>-47100</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+        <v>-59400</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-43900</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1578,32 +1656,35 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1616,9 +1697,12 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,25 +1732,26 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>750700</v>
+        <v>519200</v>
       </c>
       <c r="E41" s="3">
-        <v>179400</v>
+        <v>701300</v>
       </c>
       <c r="F41" s="3">
-        <v>250600</v>
+        <v>167600</v>
       </c>
       <c r="G41" s="3">
-        <v>48600</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>234000</v>
+      </c>
+      <c r="H41" s="3">
+        <v>45400</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1679,26 +1765,29 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5000</v>
+        <v>111000</v>
       </c>
       <c r="E42" s="3">
-        <v>5000</v>
+        <v>4600</v>
       </c>
       <c r="F42" s="3">
-        <v>34000</v>
+        <v>4700</v>
       </c>
       <c r="G42" s="3">
-        <v>42000</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+        <v>31800</v>
+      </c>
+      <c r="H42" s="3">
+        <v>39200</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1712,27 +1801,30 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>69900</v>
+        <v>42300</v>
       </c>
       <c r="E43" s="3">
-        <v>4700</v>
+        <v>65300</v>
       </c>
       <c r="F43" s="3">
-        <v>9000</v>
+        <v>4300</v>
       </c>
       <c r="G43" s="3">
+        <v>8400</v>
+      </c>
+      <c r="H43" s="3">
         <v>600</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1745,32 +1837,35 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>4000</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -1778,26 +1873,29 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17400</v>
+        <v>28100</v>
       </c>
       <c r="E45" s="3">
-        <v>25600</v>
+        <v>16300</v>
       </c>
       <c r="F45" s="3">
-        <v>27700</v>
+        <v>23900</v>
       </c>
       <c r="G45" s="3">
-        <v>17900</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+        <v>25900</v>
+      </c>
+      <c r="H45" s="3">
+        <v>16700</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1811,26 +1909,29 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>843000</v>
+        <v>704600</v>
       </c>
       <c r="E46" s="3">
-        <v>214800</v>
+        <v>787400</v>
       </c>
       <c r="F46" s="3">
-        <v>321300</v>
+        <v>200600</v>
       </c>
       <c r="G46" s="3">
-        <v>109100</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>300200</v>
+      </c>
+      <c r="H46" s="3">
+        <v>101900</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1844,17 +1945,20 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>104900</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
+        <v>56000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>98000</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1871,32 +1975,35 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6400</v>
+        <v>23400</v>
       </c>
       <c r="E48" s="3">
-        <v>7300</v>
+        <v>5900</v>
       </c>
       <c r="F48" s="3">
-        <v>4400</v>
+        <v>6900</v>
       </c>
       <c r="G48" s="3">
-        <v>3500</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+        <v>4100</v>
+      </c>
+      <c r="H48" s="3">
+        <v>3300</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1910,26 +2017,29 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>44600</v>
+        <v>41600</v>
       </c>
       <c r="E49" s="3">
-        <v>49100</v>
+        <v>41700</v>
       </c>
       <c r="F49" s="3">
-        <v>49100</v>
+        <v>45900</v>
       </c>
       <c r="G49" s="3">
-        <v>49100</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+        <v>45900</v>
+      </c>
+      <c r="H49" s="3">
+        <v>45900</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1943,9 +2053,12 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,20 +2125,23 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E52" s="3">
         <v>300</v>
       </c>
-      <c r="E52" s="3">
-        <v>2900</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+      <c r="F52" s="3">
+        <v>2700</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -2039,12 +2158,15 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,26 +2197,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>999200</v>
+        <v>829600</v>
       </c>
       <c r="E54" s="3">
-        <v>274100</v>
+        <v>933300</v>
       </c>
       <c r="F54" s="3">
-        <v>374800</v>
+        <v>256000</v>
       </c>
       <c r="G54" s="3">
-        <v>161800</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>350100</v>
+      </c>
+      <c r="H54" s="3">
+        <v>151100</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2108,9 +2233,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,31 +2268,32 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+        <v>87400</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -2171,26 +2301,29 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="3">
-        <v>7900</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>12600</v>
+        <v>7400</v>
       </c>
       <c r="G58" s="3">
-        <v>15600</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>11800</v>
+      </c>
+      <c r="H58" s="3">
+        <v>14600</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2204,26 +2337,29 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>90900</v>
+        <v>4500</v>
       </c>
       <c r="E59" s="3">
-        <v>85000</v>
+        <v>84900</v>
       </c>
       <c r="F59" s="3">
-        <v>42000</v>
+        <v>79400</v>
       </c>
       <c r="G59" s="3">
-        <v>15200</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>39200</v>
+      </c>
+      <c r="H59" s="3">
+        <v>14200</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2237,26 +2373,29 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>90900</v>
+        <v>92000</v>
       </c>
       <c r="E60" s="3">
-        <v>92800</v>
+        <v>84900</v>
       </c>
       <c r="F60" s="3">
-        <v>54600</v>
+        <v>86700</v>
       </c>
       <c r="G60" s="3">
-        <v>30800</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>51000</v>
+      </c>
+      <c r="H60" s="3">
+        <v>28800</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2270,9 +2409,12 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2280,16 +2422,16 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>10800</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>10600</v>
+        <v>10000</v>
       </c>
       <c r="G61" s="3">
-        <v>18000</v>
+        <v>9900</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>16800</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2303,26 +2445,29 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>20600</v>
+        <v>61500</v>
       </c>
       <c r="E62" s="3">
-        <v>1800</v>
+        <v>19200</v>
       </c>
       <c r="F62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2336,9 +2481,12 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,26 +2589,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>111500</v>
+        <v>153500</v>
       </c>
       <c r="E66" s="3">
-        <v>105400</v>
+        <v>104100</v>
       </c>
       <c r="F66" s="3">
-        <v>65600</v>
+        <v>98400</v>
       </c>
       <c r="G66" s="3">
-        <v>97000</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>61300</v>
+      </c>
+      <c r="H66" s="3">
+        <v>90600</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2468,9 +2625,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2559,16 +2726,16 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>489700</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>459900</v>
+        <v>457400</v>
       </c>
       <c r="G70" s="3">
-        <v>112100</v>
+        <v>429600</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>104700</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,26 +2785,29 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-319200</v>
+        <v>-641700</v>
       </c>
       <c r="E72" s="3">
-        <v>-393500</v>
+        <v>-298200</v>
       </c>
       <c r="F72" s="3">
-        <v>-160000</v>
+        <v>-367500</v>
       </c>
       <c r="G72" s="3">
-        <v>-56500</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>-149500</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-52700</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2648,9 +2821,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,26 +2929,29 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>887700</v>
+        <v>676100</v>
       </c>
       <c r="E76" s="3">
-        <v>-321000</v>
+        <v>829200</v>
       </c>
       <c r="F76" s="3">
-        <v>-150700</v>
+        <v>-299800</v>
       </c>
       <c r="G76" s="3">
-        <v>-47300</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>-140700</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-44200</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2780,9 +2965,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,32 +3001,35 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2851,26 +3042,29 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>74300</v>
+        <v>-343600</v>
       </c>
       <c r="E81" s="3">
-        <v>-234300</v>
+        <v>69400</v>
       </c>
       <c r="F81" s="3">
-        <v>-63600</v>
+        <v>-218800</v>
       </c>
       <c r="G81" s="3">
-        <v>-47100</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+        <v>-59400</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-43900</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2884,9 +3078,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,25 +3097,26 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>2300</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="F83" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="G83" s="3">
-        <v>300</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+        <v>1000</v>
+      </c>
+      <c r="H83" s="3">
+        <v>200</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2932,9 +3130,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,26 +3310,29 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>68400</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>-136900</v>
+        <v>63900</v>
       </c>
       <c r="F89" s="3">
-        <v>-44300</v>
+        <v>-127900</v>
       </c>
       <c r="G89" s="3">
-        <v>-39800</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+        <v>-41400</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-37200</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3130,9 +3346,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,25 +3365,26 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-1300</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
-        <v>-1900</v>
+        <v>-1200</v>
       </c>
       <c r="F91" s="3">
-        <v>-2300</v>
+        <v>-1800</v>
       </c>
       <c r="G91" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+        <v>-2100</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-3000</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3178,9 +3398,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,26 +3470,29 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-31900</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>33500</v>
+        <v>-29800</v>
       </c>
       <c r="F94" s="3">
-        <v>1500</v>
+        <v>31300</v>
       </c>
       <c r="G94" s="3">
-        <v>-24900</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+        <v>1400</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-23200</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3277,9 +3506,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,26 +3666,29 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>542800</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
-        <v>24100</v>
+        <v>507000</v>
       </c>
       <c r="F100" s="3">
-        <v>233400</v>
+        <v>22500</v>
       </c>
       <c r="G100" s="3">
-        <v>119700</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+        <v>218000</v>
+      </c>
+      <c r="H100" s="3">
+        <v>111800</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3457,26 +3702,29 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-16800</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E101" s="3">
-        <v>2400</v>
+        <v>-15700</v>
       </c>
       <c r="F101" s="3">
-        <v>9400</v>
+        <v>2200</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+        <v>8800</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3490,26 +3738,29 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>562500</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>-76900</v>
+        <v>525400</v>
       </c>
       <c r="F102" s="3">
-        <v>200100</v>
+        <v>-71900</v>
       </c>
       <c r="G102" s="3">
-        <v>55000</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+        <v>186900</v>
+      </c>
+      <c r="H102" s="3">
+        <v>51400</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3523,7 +3774,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/IMAB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IMAB_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="92">
   <si>
     <t>IMAB</t>
   </si>
@@ -721,10 +721,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>13000</v>
+        <v>12900</v>
       </c>
       <c r="E8" s="3">
-        <v>227300</v>
+        <v>225300</v>
       </c>
       <c r="F8" s="3">
         <v>4400</v>
@@ -845,19 +845,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>178700</v>
+        <v>177100</v>
       </c>
       <c r="E12" s="3">
-        <v>145100</v>
+        <v>143800</v>
       </c>
       <c r="F12" s="3">
-        <v>123800</v>
+        <v>122700</v>
       </c>
       <c r="G12" s="3">
-        <v>62800</v>
+        <v>62200</v>
       </c>
       <c r="H12" s="3">
-        <v>39400</v>
+        <v>39000</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -916,11 +916,11 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-60100</v>
+        <v>-59500</v>
       </c>
       <c r="F14" s="3">
         <v>3400</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>318200</v>
+        <v>315300</v>
       </c>
       <c r="E17" s="3">
-        <v>144300</v>
+        <v>143000</v>
       </c>
       <c r="F17" s="3">
-        <v>223700</v>
+        <v>221700</v>
       </c>
       <c r="G17" s="3">
-        <v>72600</v>
+        <v>71900</v>
       </c>
       <c r="H17" s="3">
-        <v>43100</v>
+        <v>42700</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1038,19 +1038,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-305200</v>
+        <v>-302500</v>
       </c>
       <c r="E18" s="3">
-        <v>83000</v>
+        <v>82200</v>
       </c>
       <c r="F18" s="3">
-        <v>-219300</v>
+        <v>-217300</v>
       </c>
       <c r="G18" s="3">
-        <v>-64600</v>
+        <v>-64100</v>
       </c>
       <c r="H18" s="3">
-        <v>-41400</v>
+        <v>-41000</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1090,16 +1090,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-38800</v>
+        <v>-38500</v>
       </c>
       <c r="E20" s="3">
-        <v>-11700</v>
+        <v>-11500</v>
       </c>
       <c r="F20" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="G20" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="H20" s="3">
         <v>-1700</v>
@@ -1125,20 +1125,20 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-338800</v>
       </c>
       <c r="E21" s="3">
-        <v>73500</v>
+        <v>72800</v>
       </c>
       <c r="F21" s="3">
-        <v>-212100</v>
+        <v>-210200</v>
       </c>
       <c r="G21" s="3">
-        <v>-56400</v>
+        <v>-55900</v>
       </c>
       <c r="H21" s="3">
-        <v>-42900</v>
+        <v>-42500</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1161,8 +1161,8 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1198,19 +1198,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-344000</v>
+        <v>-340900</v>
       </c>
       <c r="E23" s="3">
-        <v>71200</v>
+        <v>70600</v>
       </c>
       <c r="F23" s="3">
-        <v>-214000</v>
+        <v>-212000</v>
       </c>
       <c r="G23" s="3">
-        <v>-59100</v>
+        <v>-58600</v>
       </c>
       <c r="H23" s="3">
-        <v>-43900</v>
+        <v>-43600</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1306,19 +1306,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-343600</v>
+        <v>-340500</v>
       </c>
       <c r="E26" s="3">
-        <v>69400</v>
+        <v>68800</v>
       </c>
       <c r="F26" s="3">
-        <v>-214000</v>
+        <v>-212000</v>
       </c>
       <c r="G26" s="3">
-        <v>-59400</v>
+        <v>-58800</v>
       </c>
       <c r="H26" s="3">
-        <v>-43900</v>
+        <v>-43600</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1342,19 +1342,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-343600</v>
+        <v>-340500</v>
       </c>
       <c r="E27" s="3">
-        <v>69400</v>
+        <v>68800</v>
       </c>
       <c r="F27" s="3">
-        <v>-218800</v>
+        <v>-216900</v>
       </c>
       <c r="G27" s="3">
-        <v>-59400</v>
+        <v>-58800</v>
       </c>
       <c r="H27" s="3">
-        <v>-43900</v>
+        <v>-43600</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1522,16 +1522,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>38800</v>
+        <v>38500</v>
       </c>
       <c r="E32" s="3">
-        <v>11700</v>
+        <v>11500</v>
       </c>
       <c r="F32" s="3">
-        <v>-5800</v>
+        <v>-5700</v>
       </c>
       <c r="G32" s="3">
-        <v>-7300</v>
+        <v>-7200</v>
       </c>
       <c r="H32" s="3">
         <v>1700</v>
@@ -1558,19 +1558,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-343600</v>
+        <v>-340500</v>
       </c>
       <c r="E33" s="3">
-        <v>69400</v>
+        <v>68800</v>
       </c>
       <c r="F33" s="3">
-        <v>-218800</v>
+        <v>-216900</v>
       </c>
       <c r="G33" s="3">
-        <v>-59400</v>
+        <v>-58800</v>
       </c>
       <c r="H33" s="3">
-        <v>-43900</v>
+        <v>-43600</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-343600</v>
+        <v>-340500</v>
       </c>
       <c r="E35" s="3">
-        <v>69400</v>
+        <v>68800</v>
       </c>
       <c r="F35" s="3">
-        <v>-218800</v>
+        <v>-216900</v>
       </c>
       <c r="G35" s="3">
-        <v>-59400</v>
+        <v>-58800</v>
       </c>
       <c r="H35" s="3">
-        <v>-43900</v>
+        <v>-43600</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>519200</v>
+        <v>514600</v>
       </c>
       <c r="E41" s="3">
-        <v>701300</v>
+        <v>694900</v>
       </c>
       <c r="F41" s="3">
-        <v>167600</v>
+        <v>166100</v>
       </c>
       <c r="G41" s="3">
-        <v>234000</v>
+        <v>231900</v>
       </c>
       <c r="H41" s="3">
-        <v>45400</v>
+        <v>45000</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1775,7 +1775,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>111000</v>
+        <v>110000</v>
       </c>
       <c r="E42" s="3">
         <v>4600</v>
@@ -1784,10 +1784,10 @@
         <v>4700</v>
       </c>
       <c r="G42" s="3">
-        <v>31800</v>
+        <v>31500</v>
       </c>
       <c r="H42" s="3">
-        <v>39200</v>
+        <v>38900</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1811,16 +1811,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>42300</v>
+        <v>55000</v>
       </c>
       <c r="E43" s="3">
-        <v>65300</v>
+        <v>64700</v>
       </c>
       <c r="F43" s="3">
         <v>4300</v>
       </c>
       <c r="G43" s="3">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="H43" s="3">
         <v>600</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>28100</v>
+        <v>14800</v>
       </c>
       <c r="E45" s="3">
-        <v>16300</v>
+        <v>16100</v>
       </c>
       <c r="F45" s="3">
-        <v>23900</v>
+        <v>23700</v>
       </c>
       <c r="G45" s="3">
-        <v>25900</v>
+        <v>25700</v>
       </c>
       <c r="H45" s="3">
-        <v>16700</v>
+        <v>16600</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>704600</v>
+        <v>698300</v>
       </c>
       <c r="E46" s="3">
-        <v>787400</v>
+        <v>780300</v>
       </c>
       <c r="F46" s="3">
-        <v>200600</v>
+        <v>198800</v>
       </c>
       <c r="G46" s="3">
-        <v>300200</v>
+        <v>297400</v>
       </c>
       <c r="H46" s="3">
-        <v>101900</v>
+        <v>101000</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1955,10 +1955,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>56000</v>
+        <v>51400</v>
       </c>
       <c r="E47" s="3">
-        <v>98000</v>
+        <v>97100</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1991,16 +1991,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23400</v>
+        <v>23100</v>
       </c>
       <c r="E48" s="3">
         <v>5900</v>
       </c>
       <c r="F48" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="G48" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="H48" s="3">
         <v>3300</v>
@@ -2027,19 +2027,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>41600</v>
+        <v>41200</v>
       </c>
       <c r="E49" s="3">
-        <v>41700</v>
+        <v>41300</v>
       </c>
       <c r="F49" s="3">
-        <v>45900</v>
+        <v>45500</v>
       </c>
       <c r="G49" s="3">
-        <v>45900</v>
+        <v>45500</v>
       </c>
       <c r="H49" s="3">
-        <v>45900</v>
+        <v>45500</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>829600</v>
+        <v>817900</v>
       </c>
       <c r="E54" s="3">
-        <v>933300</v>
+        <v>924900</v>
       </c>
       <c r="F54" s="3">
-        <v>256000</v>
+        <v>253700</v>
       </c>
       <c r="G54" s="3">
-        <v>350100</v>
+        <v>347000</v>
       </c>
       <c r="H54" s="3">
-        <v>151100</v>
+        <v>149700</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2275,7 +2275,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>87400</v>
+        <v>8400</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>3</v>
@@ -2310,20 +2310,20 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="G58" s="3">
-        <v>11800</v>
+        <v>11700</v>
       </c>
       <c r="H58" s="3">
-        <v>14600</v>
+        <v>14500</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4500</v>
+        <v>82700</v>
       </c>
       <c r="E59" s="3">
-        <v>84900</v>
+        <v>84100</v>
       </c>
       <c r="F59" s="3">
-        <v>79400</v>
+        <v>78600</v>
       </c>
       <c r="G59" s="3">
-        <v>39200</v>
+        <v>38900</v>
       </c>
       <c r="H59" s="3">
-        <v>14200</v>
+        <v>14000</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>92000</v>
+        <v>91100</v>
       </c>
       <c r="E60" s="3">
-        <v>84900</v>
+        <v>84100</v>
       </c>
       <c r="F60" s="3">
-        <v>86700</v>
+        <v>85900</v>
       </c>
       <c r="G60" s="3">
-        <v>51000</v>
+        <v>50500</v>
       </c>
       <c r="H60" s="3">
-        <v>28800</v>
+        <v>28500</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2428,10 +2428,10 @@
         <v>10000</v>
       </c>
       <c r="G61" s="3">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="H61" s="3">
-        <v>16800</v>
+        <v>16600</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2455,10 +2455,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>61500</v>
+        <v>61000</v>
       </c>
       <c r="E62" s="3">
-        <v>19200</v>
+        <v>19100</v>
       </c>
       <c r="F62" s="3">
         <v>1700</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>153500</v>
+        <v>152100</v>
       </c>
       <c r="E66" s="3">
-        <v>104100</v>
+        <v>103200</v>
       </c>
       <c r="F66" s="3">
-        <v>98400</v>
+        <v>97600</v>
       </c>
       <c r="G66" s="3">
-        <v>61300</v>
+        <v>60700</v>
       </c>
       <c r="H66" s="3">
-        <v>90600</v>
+        <v>89800</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2729,13 +2729,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>457400</v>
+        <v>453300</v>
       </c>
       <c r="G70" s="3">
-        <v>429600</v>
+        <v>425700</v>
       </c>
       <c r="H70" s="3">
-        <v>104700</v>
+        <v>103700</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-641700</v>
+        <v>-635900</v>
       </c>
       <c r="E72" s="3">
-        <v>-298200</v>
+        <v>-295500</v>
       </c>
       <c r="F72" s="3">
-        <v>-367500</v>
+        <v>-364200</v>
       </c>
       <c r="G72" s="3">
-        <v>-149500</v>
+        <v>-148100</v>
       </c>
       <c r="H72" s="3">
-        <v>-52700</v>
+        <v>-52300</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>676100</v>
+        <v>665800</v>
       </c>
       <c r="E76" s="3">
-        <v>829200</v>
+        <v>821700</v>
       </c>
       <c r="F76" s="3">
-        <v>-299800</v>
+        <v>-297100</v>
       </c>
       <c r="G76" s="3">
-        <v>-140700</v>
+        <v>-139400</v>
       </c>
       <c r="H76" s="3">
-        <v>-44200</v>
+        <v>-43800</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3052,19 +3052,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-343600</v>
+        <v>-340500</v>
       </c>
       <c r="E81" s="3">
-        <v>69400</v>
+        <v>68800</v>
       </c>
       <c r="F81" s="3">
-        <v>-218800</v>
+        <v>-216900</v>
       </c>
       <c r="G81" s="3">
-        <v>-59400</v>
+        <v>-58800</v>
       </c>
       <c r="H81" s="3">
-        <v>-43900</v>
+        <v>-43600</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3103,8 +3103,8 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>2100</v>
       </c>
       <c r="E83" s="3">
         <v>2100</v>
@@ -3319,20 +3319,20 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>-142100</v>
       </c>
       <c r="E89" s="3">
-        <v>63900</v>
+        <v>63300</v>
       </c>
       <c r="F89" s="3">
-        <v>-127900</v>
+        <v>-126800</v>
       </c>
       <c r="G89" s="3">
-        <v>-41400</v>
+        <v>-41000</v>
       </c>
       <c r="H89" s="3">
-        <v>-37200</v>
+        <v>-36800</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3371,8 +3371,8 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-4400</v>
       </c>
       <c r="E91" s="3">
         <v>-1200</v>
@@ -3479,20 +3479,20 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-106200</v>
       </c>
       <c r="E94" s="3">
-        <v>-29800</v>
+        <v>-29500</v>
       </c>
       <c r="F94" s="3">
-        <v>31300</v>
+        <v>31000</v>
       </c>
       <c r="G94" s="3">
         <v>1400</v>
       </c>
       <c r="H94" s="3">
-        <v>-23200</v>
+        <v>-23000</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3675,20 +3675,20 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>86700</v>
       </c>
       <c r="E100" s="3">
-        <v>507000</v>
+        <v>502400</v>
       </c>
       <c r="F100" s="3">
-        <v>22500</v>
+        <v>22300</v>
       </c>
       <c r="G100" s="3">
-        <v>218000</v>
+        <v>216100</v>
       </c>
       <c r="H100" s="3">
-        <v>111800</v>
+        <v>110800</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3711,17 +3711,17 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>-18800</v>
       </c>
       <c r="E101" s="3">
-        <v>-15700</v>
+        <v>-15600</v>
       </c>
       <c r="F101" s="3">
         <v>2200</v>
       </c>
       <c r="G101" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -3747,20 +3747,20 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>-180400</v>
       </c>
       <c r="E102" s="3">
-        <v>525400</v>
+        <v>520700</v>
       </c>
       <c r="F102" s="3">
-        <v>-71900</v>
+        <v>-71200</v>
       </c>
       <c r="G102" s="3">
-        <v>186900</v>
+        <v>185200</v>
       </c>
       <c r="H102" s="3">
-        <v>51400</v>
+        <v>50900</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/IMAB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IMAB_YR_FIN.xlsx
@@ -721,19 +721,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>12900</v>
+        <v>12300</v>
       </c>
       <c r="E8" s="3">
-        <v>225300</v>
+        <v>214700</v>
       </c>
       <c r="F8" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="G8" s="3">
-        <v>7900</v>
+        <v>7500</v>
       </c>
       <c r="H8" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -757,7 +757,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>6800</v>
+        <v>6500</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -793,7 +793,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>6100</v>
+        <v>5800</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -845,19 +845,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>177100</v>
+        <v>168800</v>
       </c>
       <c r="E12" s="3">
-        <v>143800</v>
+        <v>137100</v>
       </c>
       <c r="F12" s="3">
-        <v>122700</v>
+        <v>117000</v>
       </c>
       <c r="G12" s="3">
-        <v>62200</v>
+        <v>59300</v>
       </c>
       <c r="H12" s="3">
-        <v>39000</v>
+        <v>37200</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -920,10 +920,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-59500</v>
+        <v>-56700</v>
       </c>
       <c r="F14" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>315300</v>
+        <v>300600</v>
       </c>
       <c r="E17" s="3">
-        <v>143000</v>
+        <v>136300</v>
       </c>
       <c r="F17" s="3">
-        <v>221700</v>
+        <v>211300</v>
       </c>
       <c r="G17" s="3">
-        <v>71900</v>
+        <v>68500</v>
       </c>
       <c r="H17" s="3">
-        <v>42700</v>
+        <v>40700</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1038,19 +1038,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-302500</v>
+        <v>-288300</v>
       </c>
       <c r="E18" s="3">
-        <v>82200</v>
+        <v>78400</v>
       </c>
       <c r="F18" s="3">
-        <v>-217300</v>
+        <v>-207100</v>
       </c>
       <c r="G18" s="3">
-        <v>-64100</v>
+        <v>-61100</v>
       </c>
       <c r="H18" s="3">
-        <v>-41000</v>
+        <v>-39100</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1090,19 +1090,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-38500</v>
+        <v>-36700</v>
       </c>
       <c r="E20" s="3">
-        <v>-11500</v>
+        <v>-11000</v>
       </c>
       <c r="F20" s="3">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="G20" s="3">
-        <v>7200</v>
+        <v>6900</v>
       </c>
       <c r="H20" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1126,19 +1126,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-338800</v>
+        <v>-323000</v>
       </c>
       <c r="E21" s="3">
-        <v>72800</v>
+        <v>69400</v>
       </c>
       <c r="F21" s="3">
-        <v>-210200</v>
+        <v>-200300</v>
       </c>
       <c r="G21" s="3">
-        <v>-55900</v>
+        <v>-53300</v>
       </c>
       <c r="H21" s="3">
-        <v>-42500</v>
+        <v>-40500</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1171,7 +1171,7 @@
         <v>400</v>
       </c>
       <c r="G22" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="H22" s="3">
         <v>800</v>
@@ -1198,19 +1198,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-340900</v>
+        <v>-325000</v>
       </c>
       <c r="E23" s="3">
-        <v>70600</v>
+        <v>67300</v>
       </c>
       <c r="F23" s="3">
-        <v>-212000</v>
+        <v>-202100</v>
       </c>
       <c r="G23" s="3">
-        <v>-58600</v>
+        <v>-55800</v>
       </c>
       <c r="H23" s="3">
-        <v>-43600</v>
+        <v>-41500</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1234,16 +1234,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="E24" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1306,19 +1306,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-340500</v>
+        <v>-324600</v>
       </c>
       <c r="E26" s="3">
-        <v>68800</v>
+        <v>65600</v>
       </c>
       <c r="F26" s="3">
-        <v>-212000</v>
+        <v>-202100</v>
       </c>
       <c r="G26" s="3">
-        <v>-58800</v>
+        <v>-56100</v>
       </c>
       <c r="H26" s="3">
-        <v>-43600</v>
+        <v>-41500</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1342,19 +1342,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-340500</v>
+        <v>-324600</v>
       </c>
       <c r="E27" s="3">
-        <v>68800</v>
+        <v>65600</v>
       </c>
       <c r="F27" s="3">
-        <v>-216900</v>
+        <v>-206700</v>
       </c>
       <c r="G27" s="3">
-        <v>-58800</v>
+        <v>-56100</v>
       </c>
       <c r="H27" s="3">
-        <v>-43600</v>
+        <v>-41500</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1522,19 +1522,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>38500</v>
+        <v>36700</v>
       </c>
       <c r="E32" s="3">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="F32" s="3">
-        <v>-5700</v>
+        <v>-5400</v>
       </c>
       <c r="G32" s="3">
-        <v>-7200</v>
+        <v>-6900</v>
       </c>
       <c r="H32" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1558,19 +1558,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-340500</v>
+        <v>-324600</v>
       </c>
       <c r="E33" s="3">
-        <v>68800</v>
+        <v>65600</v>
       </c>
       <c r="F33" s="3">
-        <v>-216900</v>
+        <v>-206700</v>
       </c>
       <c r="G33" s="3">
-        <v>-58800</v>
+        <v>-56100</v>
       </c>
       <c r="H33" s="3">
-        <v>-43600</v>
+        <v>-41500</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-340500</v>
+        <v>-324600</v>
       </c>
       <c r="E35" s="3">
-        <v>68800</v>
+        <v>65600</v>
       </c>
       <c r="F35" s="3">
-        <v>-216900</v>
+        <v>-206700</v>
       </c>
       <c r="G35" s="3">
-        <v>-58800</v>
+        <v>-56100</v>
       </c>
       <c r="H35" s="3">
-        <v>-43600</v>
+        <v>-41500</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>514600</v>
+        <v>490500</v>
       </c>
       <c r="E41" s="3">
-        <v>694900</v>
+        <v>662400</v>
       </c>
       <c r="F41" s="3">
-        <v>166100</v>
+        <v>158300</v>
       </c>
       <c r="G41" s="3">
-        <v>231900</v>
+        <v>221100</v>
       </c>
       <c r="H41" s="3">
-        <v>45000</v>
+        <v>42900</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1775,19 +1775,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>110000</v>
+        <v>104800</v>
       </c>
       <c r="E42" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="F42" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="G42" s="3">
-        <v>31500</v>
+        <v>30000</v>
       </c>
       <c r="H42" s="3">
-        <v>38900</v>
+        <v>37100</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1811,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>55000</v>
+        <v>52400</v>
       </c>
       <c r="E43" s="3">
-        <v>64700</v>
+        <v>61700</v>
       </c>
       <c r="F43" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="G43" s="3">
-        <v>8300</v>
+        <v>8000</v>
       </c>
       <c r="H43" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1847,7 +1847,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>3</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14800</v>
+        <v>14100</v>
       </c>
       <c r="E45" s="3">
-        <v>16100</v>
+        <v>15400</v>
       </c>
       <c r="F45" s="3">
-        <v>23700</v>
+        <v>22600</v>
       </c>
       <c r="G45" s="3">
-        <v>25700</v>
+        <v>24500</v>
       </c>
       <c r="H45" s="3">
-        <v>16600</v>
+        <v>15800</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>698300</v>
+        <v>665600</v>
       </c>
       <c r="E46" s="3">
-        <v>780300</v>
+        <v>743800</v>
       </c>
       <c r="F46" s="3">
-        <v>198800</v>
+        <v>189500</v>
       </c>
       <c r="G46" s="3">
-        <v>297400</v>
+        <v>283500</v>
       </c>
       <c r="H46" s="3">
-        <v>101000</v>
+        <v>96300</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1955,10 +1955,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>51400</v>
+        <v>49000</v>
       </c>
       <c r="E47" s="3">
-        <v>97100</v>
+        <v>92500</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23100</v>
+        <v>22100</v>
       </c>
       <c r="E48" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="F48" s="3">
-        <v>6800</v>
+        <v>6500</v>
       </c>
       <c r="G48" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="H48" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2027,19 +2027,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>41200</v>
+        <v>39300</v>
       </c>
       <c r="E49" s="3">
-        <v>41300</v>
+        <v>39400</v>
       </c>
       <c r="F49" s="3">
-        <v>45500</v>
+        <v>43300</v>
       </c>
       <c r="G49" s="3">
-        <v>45500</v>
+        <v>43300</v>
       </c>
       <c r="H49" s="3">
-        <v>45500</v>
+        <v>43300</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2135,13 +2135,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="E52" s="3">
         <v>300</v>
       </c>
       <c r="F52" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>817900</v>
+        <v>779700</v>
       </c>
       <c r="E54" s="3">
-        <v>924900</v>
+        <v>881700</v>
       </c>
       <c r="F54" s="3">
-        <v>253700</v>
+        <v>241900</v>
       </c>
       <c r="G54" s="3">
-        <v>347000</v>
+        <v>330700</v>
       </c>
       <c r="H54" s="3">
-        <v>149700</v>
+        <v>142700</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2275,7 +2275,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8400</v>
+        <v>8000</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>3</v>
@@ -2317,13 +2317,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="G58" s="3">
-        <v>11700</v>
+        <v>11100</v>
       </c>
       <c r="H58" s="3">
-        <v>14500</v>
+        <v>13800</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>82700</v>
+        <v>78900</v>
       </c>
       <c r="E59" s="3">
-        <v>84100</v>
+        <v>80200</v>
       </c>
       <c r="F59" s="3">
-        <v>78600</v>
+        <v>75000</v>
       </c>
       <c r="G59" s="3">
-        <v>38900</v>
+        <v>37000</v>
       </c>
       <c r="H59" s="3">
-        <v>14000</v>
+        <v>13400</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>91100</v>
+        <v>86900</v>
       </c>
       <c r="E60" s="3">
-        <v>84100</v>
+        <v>80200</v>
       </c>
       <c r="F60" s="3">
-        <v>85900</v>
+        <v>81900</v>
       </c>
       <c r="G60" s="3">
-        <v>50500</v>
+        <v>48200</v>
       </c>
       <c r="H60" s="3">
-        <v>28500</v>
+        <v>27200</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2425,13 +2425,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="G61" s="3">
-        <v>9800</v>
+        <v>9300</v>
       </c>
       <c r="H61" s="3">
-        <v>16600</v>
+        <v>15900</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2455,16 +2455,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>61000</v>
+        <v>58100</v>
       </c>
       <c r="E62" s="3">
-        <v>19100</v>
+        <v>18200</v>
       </c>
       <c r="F62" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="G62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>152100</v>
+        <v>145000</v>
       </c>
       <c r="E66" s="3">
-        <v>103200</v>
+        <v>98400</v>
       </c>
       <c r="F66" s="3">
-        <v>97600</v>
+        <v>93000</v>
       </c>
       <c r="G66" s="3">
-        <v>60700</v>
+        <v>57900</v>
       </c>
       <c r="H66" s="3">
-        <v>89800</v>
+        <v>85600</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2729,13 +2729,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>453300</v>
+        <v>432100</v>
       </c>
       <c r="G70" s="3">
-        <v>425700</v>
+        <v>405800</v>
       </c>
       <c r="H70" s="3">
-        <v>103700</v>
+        <v>98900</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-635900</v>
+        <v>-606200</v>
       </c>
       <c r="E72" s="3">
-        <v>-295500</v>
+        <v>-281600</v>
       </c>
       <c r="F72" s="3">
-        <v>-364200</v>
+        <v>-347200</v>
       </c>
       <c r="G72" s="3">
-        <v>-148100</v>
+        <v>-141200</v>
       </c>
       <c r="H72" s="3">
-        <v>-52300</v>
+        <v>-49800</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>665800</v>
+        <v>634700</v>
       </c>
       <c r="E76" s="3">
-        <v>821700</v>
+        <v>783300</v>
       </c>
       <c r="F76" s="3">
-        <v>-297100</v>
+        <v>-283200</v>
       </c>
       <c r="G76" s="3">
-        <v>-139400</v>
+        <v>-132900</v>
       </c>
       <c r="H76" s="3">
-        <v>-43800</v>
+        <v>-41800</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3052,19 +3052,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-340500</v>
+        <v>-324600</v>
       </c>
       <c r="E81" s="3">
-        <v>68800</v>
+        <v>65600</v>
       </c>
       <c r="F81" s="3">
-        <v>-216900</v>
+        <v>-206700</v>
       </c>
       <c r="G81" s="3">
-        <v>-58800</v>
+        <v>-56100</v>
       </c>
       <c r="H81" s="3">
-        <v>-43600</v>
+        <v>-41500</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3104,16 +3104,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E83" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F83" s="3">
         <v>1400</v>
       </c>
       <c r="G83" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
@@ -3320,19 +3320,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-142100</v>
+        <v>-135500</v>
       </c>
       <c r="E89" s="3">
-        <v>63300</v>
+        <v>60400</v>
       </c>
       <c r="F89" s="3">
-        <v>-126800</v>
+        <v>-120800</v>
       </c>
       <c r="G89" s="3">
-        <v>-41000</v>
+        <v>-39100</v>
       </c>
       <c r="H89" s="3">
-        <v>-36800</v>
+        <v>-35100</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3372,19 +3372,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4400</v>
+        <v>-4200</v>
       </c>
       <c r="E91" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="G91" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="H91" s="3">
-        <v>-3000</v>
+        <v>-2800</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3480,19 +3480,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-106200</v>
+        <v>-101200</v>
       </c>
       <c r="E94" s="3">
-        <v>-29500</v>
+        <v>-28100</v>
       </c>
       <c r="F94" s="3">
-        <v>31000</v>
+        <v>29600</v>
       </c>
       <c r="G94" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H94" s="3">
-        <v>-23000</v>
+        <v>-21900</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3676,19 +3676,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>86700</v>
+        <v>82700</v>
       </c>
       <c r="E100" s="3">
-        <v>502400</v>
+        <v>478900</v>
       </c>
       <c r="F100" s="3">
-        <v>22300</v>
+        <v>21300</v>
       </c>
       <c r="G100" s="3">
-        <v>216100</v>
+        <v>206000</v>
       </c>
       <c r="H100" s="3">
-        <v>110800</v>
+        <v>105600</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3712,16 +3712,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-18800</v>
+        <v>-17900</v>
       </c>
       <c r="E101" s="3">
-        <v>-15600</v>
+        <v>-14800</v>
       </c>
       <c r="F101" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="G101" s="3">
-        <v>8700</v>
+        <v>8300</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -3748,19 +3748,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-180400</v>
+        <v>-171900</v>
       </c>
       <c r="E102" s="3">
-        <v>520700</v>
+        <v>496300</v>
       </c>
       <c r="F102" s="3">
-        <v>-71200</v>
+        <v>-67900</v>
       </c>
       <c r="G102" s="3">
-        <v>185200</v>
+        <v>176500</v>
       </c>
       <c r="H102" s="3">
-        <v>50900</v>
+        <v>48500</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/IMAB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IMAB_YR_FIN.xlsx
@@ -721,19 +721,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>12300</v>
+        <v>12600</v>
       </c>
       <c r="E8" s="3">
-        <v>214700</v>
+        <v>221600</v>
       </c>
       <c r="F8" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="G8" s="3">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="H8" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -757,7 +757,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -793,7 +793,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -845,19 +845,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>168800</v>
+        <v>174200</v>
       </c>
       <c r="E12" s="3">
-        <v>137100</v>
+        <v>141400</v>
       </c>
       <c r="F12" s="3">
-        <v>117000</v>
+        <v>120700</v>
       </c>
       <c r="G12" s="3">
-        <v>59300</v>
+        <v>61200</v>
       </c>
       <c r="H12" s="3">
-        <v>37200</v>
+        <v>38400</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -920,10 +920,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-56700</v>
+        <v>-58500</v>
       </c>
       <c r="F14" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300600</v>
+        <v>310100</v>
       </c>
       <c r="E17" s="3">
-        <v>136300</v>
+        <v>140700</v>
       </c>
       <c r="F17" s="3">
-        <v>211300</v>
+        <v>218000</v>
       </c>
       <c r="G17" s="3">
-        <v>68500</v>
+        <v>70700</v>
       </c>
       <c r="H17" s="3">
-        <v>40700</v>
+        <v>42000</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1038,19 +1038,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-288300</v>
+        <v>-297500</v>
       </c>
       <c r="E18" s="3">
-        <v>78400</v>
+        <v>80900</v>
       </c>
       <c r="F18" s="3">
-        <v>-207100</v>
+        <v>-213700</v>
       </c>
       <c r="G18" s="3">
-        <v>-61100</v>
+        <v>-63000</v>
       </c>
       <c r="H18" s="3">
-        <v>-39100</v>
+        <v>-40400</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1090,19 +1090,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-36700</v>
+        <v>-37800</v>
       </c>
       <c r="E20" s="3">
-        <v>-11000</v>
+        <v>-11400</v>
       </c>
       <c r="F20" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="G20" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="H20" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1126,19 +1126,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-323000</v>
+        <v>-333200</v>
       </c>
       <c r="E21" s="3">
-        <v>69400</v>
+        <v>71600</v>
       </c>
       <c r="F21" s="3">
-        <v>-200300</v>
+        <v>-206700</v>
       </c>
       <c r="G21" s="3">
-        <v>-53300</v>
+        <v>-55000</v>
       </c>
       <c r="H21" s="3">
-        <v>-40500</v>
+        <v>-41800</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1171,7 +1171,7 @@
         <v>400</v>
       </c>
       <c r="G22" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="H22" s="3">
         <v>800</v>
@@ -1198,19 +1198,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-325000</v>
+        <v>-335300</v>
       </c>
       <c r="E23" s="3">
-        <v>67300</v>
+        <v>69400</v>
       </c>
       <c r="F23" s="3">
-        <v>-202100</v>
+        <v>-208500</v>
       </c>
       <c r="G23" s="3">
-        <v>-55800</v>
+        <v>-57600</v>
       </c>
       <c r="H23" s="3">
-        <v>-41500</v>
+        <v>-42800</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1234,10 +1234,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E24" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1306,19 +1306,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-324600</v>
+        <v>-334900</v>
       </c>
       <c r="E26" s="3">
-        <v>65600</v>
+        <v>67600</v>
       </c>
       <c r="F26" s="3">
-        <v>-202100</v>
+        <v>-208500</v>
       </c>
       <c r="G26" s="3">
-        <v>-56100</v>
+        <v>-57900</v>
       </c>
       <c r="H26" s="3">
-        <v>-41500</v>
+        <v>-42800</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1342,19 +1342,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-324600</v>
+        <v>-334900</v>
       </c>
       <c r="E27" s="3">
-        <v>65600</v>
+        <v>67600</v>
       </c>
       <c r="F27" s="3">
-        <v>-206700</v>
+        <v>-213300</v>
       </c>
       <c r="G27" s="3">
-        <v>-56100</v>
+        <v>-57900</v>
       </c>
       <c r="H27" s="3">
-        <v>-41500</v>
+        <v>-42800</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1522,19 +1522,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>36700</v>
+        <v>37800</v>
       </c>
       <c r="E32" s="3">
-        <v>11000</v>
+        <v>11400</v>
       </c>
       <c r="F32" s="3">
-        <v>-5400</v>
+        <v>-5600</v>
       </c>
       <c r="G32" s="3">
-        <v>-6900</v>
+        <v>-7100</v>
       </c>
       <c r="H32" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1558,19 +1558,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-324600</v>
+        <v>-334900</v>
       </c>
       <c r="E33" s="3">
-        <v>65600</v>
+        <v>67600</v>
       </c>
       <c r="F33" s="3">
-        <v>-206700</v>
+        <v>-213300</v>
       </c>
       <c r="G33" s="3">
-        <v>-56100</v>
+        <v>-57900</v>
       </c>
       <c r="H33" s="3">
-        <v>-41500</v>
+        <v>-42800</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-324600</v>
+        <v>-334900</v>
       </c>
       <c r="E35" s="3">
-        <v>65600</v>
+        <v>67600</v>
       </c>
       <c r="F35" s="3">
-        <v>-206700</v>
+        <v>-213300</v>
       </c>
       <c r="G35" s="3">
-        <v>-56100</v>
+        <v>-57900</v>
       </c>
       <c r="H35" s="3">
-        <v>-41500</v>
+        <v>-42800</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>490500</v>
+        <v>506100</v>
       </c>
       <c r="E41" s="3">
-        <v>662400</v>
+        <v>683500</v>
       </c>
       <c r="F41" s="3">
-        <v>158300</v>
+        <v>163400</v>
       </c>
       <c r="G41" s="3">
-        <v>221100</v>
+        <v>228100</v>
       </c>
       <c r="H41" s="3">
-        <v>42900</v>
+        <v>44200</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1775,19 +1775,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>104800</v>
+        <v>108200</v>
       </c>
       <c r="E42" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="F42" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="G42" s="3">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="H42" s="3">
-        <v>37100</v>
+        <v>38200</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1811,16 +1811,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>52400</v>
+        <v>54100</v>
       </c>
       <c r="E43" s="3">
-        <v>61700</v>
+        <v>63600</v>
       </c>
       <c r="F43" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="G43" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="H43" s="3">
         <v>500</v>
@@ -1847,7 +1847,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>3</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14100</v>
+        <v>14500</v>
       </c>
       <c r="E45" s="3">
-        <v>15400</v>
+        <v>15800</v>
       </c>
       <c r="F45" s="3">
-        <v>22600</v>
+        <v>23300</v>
       </c>
       <c r="G45" s="3">
-        <v>24500</v>
+        <v>25300</v>
       </c>
       <c r="H45" s="3">
-        <v>15800</v>
+        <v>16300</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>665600</v>
+        <v>686800</v>
       </c>
       <c r="E46" s="3">
-        <v>743800</v>
+        <v>767500</v>
       </c>
       <c r="F46" s="3">
-        <v>189500</v>
+        <v>195500</v>
       </c>
       <c r="G46" s="3">
-        <v>283500</v>
+        <v>292500</v>
       </c>
       <c r="H46" s="3">
-        <v>96300</v>
+        <v>99300</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1955,10 +1955,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>49000</v>
+        <v>50600</v>
       </c>
       <c r="E47" s="3">
-        <v>92500</v>
+        <v>95500</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22100</v>
+        <v>22800</v>
       </c>
       <c r="E48" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="F48" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="G48" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="H48" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2027,19 +2027,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>39300</v>
+        <v>40500</v>
       </c>
       <c r="E49" s="3">
-        <v>39400</v>
+        <v>40600</v>
       </c>
       <c r="F49" s="3">
-        <v>43300</v>
+        <v>44700</v>
       </c>
       <c r="G49" s="3">
-        <v>43300</v>
+        <v>44700</v>
       </c>
       <c r="H49" s="3">
-        <v>43300</v>
+        <v>44700</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2135,7 +2135,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="E52" s="3">
         <v>300</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>779700</v>
+        <v>804400</v>
       </c>
       <c r="E54" s="3">
-        <v>881700</v>
+        <v>909700</v>
       </c>
       <c r="F54" s="3">
-        <v>241900</v>
+        <v>249600</v>
       </c>
       <c r="G54" s="3">
-        <v>330700</v>
+        <v>341200</v>
       </c>
       <c r="H54" s="3">
-        <v>142700</v>
+        <v>147300</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2275,7 +2275,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>3</v>
@@ -2317,13 +2317,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="G58" s="3">
-        <v>11100</v>
+        <v>11500</v>
       </c>
       <c r="H58" s="3">
-        <v>13800</v>
+        <v>14200</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>78900</v>
+        <v>81400</v>
       </c>
       <c r="E59" s="3">
-        <v>80200</v>
+        <v>82700</v>
       </c>
       <c r="F59" s="3">
-        <v>75000</v>
+        <v>77300</v>
       </c>
       <c r="G59" s="3">
-        <v>37000</v>
+        <v>38200</v>
       </c>
       <c r="H59" s="3">
-        <v>13400</v>
+        <v>13800</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>86900</v>
+        <v>89600</v>
       </c>
       <c r="E60" s="3">
-        <v>80200</v>
+        <v>82700</v>
       </c>
       <c r="F60" s="3">
-        <v>81900</v>
+        <v>84500</v>
       </c>
       <c r="G60" s="3">
-        <v>48200</v>
+        <v>49700</v>
       </c>
       <c r="H60" s="3">
-        <v>27200</v>
+        <v>28000</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2425,13 +2425,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>9500</v>
+        <v>9800</v>
       </c>
       <c r="G61" s="3">
-        <v>9300</v>
+        <v>9600</v>
       </c>
       <c r="H61" s="3">
-        <v>15900</v>
+        <v>16400</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2455,16 +2455,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>58100</v>
+        <v>60000</v>
       </c>
       <c r="E62" s="3">
-        <v>18200</v>
+        <v>18700</v>
       </c>
       <c r="F62" s="3">
         <v>1600</v>
       </c>
       <c r="G62" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>145000</v>
+        <v>149600</v>
       </c>
       <c r="E66" s="3">
-        <v>98400</v>
+        <v>101500</v>
       </c>
       <c r="F66" s="3">
-        <v>93000</v>
+        <v>96000</v>
       </c>
       <c r="G66" s="3">
-        <v>57900</v>
+        <v>59700</v>
       </c>
       <c r="H66" s="3">
-        <v>85600</v>
+        <v>88300</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2729,13 +2729,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>432100</v>
+        <v>445800</v>
       </c>
       <c r="G70" s="3">
-        <v>405800</v>
+        <v>418700</v>
       </c>
       <c r="H70" s="3">
-        <v>98900</v>
+        <v>102000</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-606200</v>
+        <v>-625400</v>
       </c>
       <c r="E72" s="3">
-        <v>-281600</v>
+        <v>-290600</v>
       </c>
       <c r="F72" s="3">
-        <v>-347200</v>
+        <v>-358200</v>
       </c>
       <c r="G72" s="3">
-        <v>-141200</v>
+        <v>-145700</v>
       </c>
       <c r="H72" s="3">
-        <v>-49800</v>
+        <v>-51400</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>634700</v>
+        <v>654800</v>
       </c>
       <c r="E76" s="3">
-        <v>783300</v>
+        <v>808200</v>
       </c>
       <c r="F76" s="3">
-        <v>-283200</v>
+        <v>-292200</v>
       </c>
       <c r="G76" s="3">
-        <v>-132900</v>
+        <v>-137200</v>
       </c>
       <c r="H76" s="3">
-        <v>-41800</v>
+        <v>-43000</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3052,19 +3052,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-324600</v>
+        <v>-334900</v>
       </c>
       <c r="E81" s="3">
-        <v>65600</v>
+        <v>67600</v>
       </c>
       <c r="F81" s="3">
-        <v>-206700</v>
+        <v>-213300</v>
       </c>
       <c r="G81" s="3">
-        <v>-56100</v>
+        <v>-57900</v>
       </c>
       <c r="H81" s="3">
-        <v>-41500</v>
+        <v>-42800</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3104,16 +3104,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E83" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="F83" s="3">
         <v>1400</v>
       </c>
       <c r="G83" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
@@ -3320,19 +3320,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-135500</v>
+        <v>-139800</v>
       </c>
       <c r="E89" s="3">
-        <v>60400</v>
+        <v>62300</v>
       </c>
       <c r="F89" s="3">
-        <v>-120800</v>
+        <v>-124700</v>
       </c>
       <c r="G89" s="3">
-        <v>-39100</v>
+        <v>-40300</v>
       </c>
       <c r="H89" s="3">
-        <v>-35100</v>
+        <v>-36200</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3372,19 +3372,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="E91" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="F91" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="G91" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="H91" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3480,19 +3480,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-101200</v>
+        <v>-104400</v>
       </c>
       <c r="E94" s="3">
-        <v>-28100</v>
+        <v>-29000</v>
       </c>
       <c r="F94" s="3">
-        <v>29600</v>
+        <v>30500</v>
       </c>
       <c r="G94" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="H94" s="3">
-        <v>-21900</v>
+        <v>-22600</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3676,19 +3676,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>82700</v>
+        <v>85300</v>
       </c>
       <c r="E100" s="3">
-        <v>478900</v>
+        <v>494100</v>
       </c>
       <c r="F100" s="3">
-        <v>21300</v>
+        <v>21900</v>
       </c>
       <c r="G100" s="3">
-        <v>206000</v>
+        <v>212500</v>
       </c>
       <c r="H100" s="3">
-        <v>105600</v>
+        <v>108900</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3712,16 +3712,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-17900</v>
+        <v>-18500</v>
       </c>
       <c r="E101" s="3">
-        <v>-14800</v>
+        <v>-15300</v>
       </c>
       <c r="F101" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="G101" s="3">
-        <v>8300</v>
+        <v>8600</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -3748,19 +3748,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-171900</v>
+        <v>-177400</v>
       </c>
       <c r="E102" s="3">
-        <v>496300</v>
+        <v>512100</v>
       </c>
       <c r="F102" s="3">
-        <v>-67900</v>
+        <v>-70000</v>
       </c>
       <c r="G102" s="3">
-        <v>176500</v>
+        <v>182100</v>
       </c>
       <c r="H102" s="3">
-        <v>48500</v>
+        <v>50100</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/IMAB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IMAB_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="92">
   <si>
     <t>IMAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,43 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,29 +714,32 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
-        <v>12600</v>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E8" s="3">
-        <v>221600</v>
+        <v>12500</v>
       </c>
       <c r="F8" s="3">
+        <v>219300</v>
+      </c>
+      <c r="G8" s="3">
         <v>4300</v>
       </c>
-      <c r="G8" s="3">
-        <v>7700</v>
-      </c>
       <c r="H8" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+        <v>7600</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1600</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -750,17 +753,20 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>6700</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
+        <v>3900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6600</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -786,17 +792,20 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>6000</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5900</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -822,9 +831,12 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,28 +851,29 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>174200</v>
+        <v>128600</v>
       </c>
       <c r="E12" s="3">
-        <v>141400</v>
+        <v>172400</v>
       </c>
       <c r="F12" s="3">
-        <v>120700</v>
+        <v>140000</v>
       </c>
       <c r="G12" s="3">
-        <v>61200</v>
+        <v>119500</v>
       </c>
       <c r="H12" s="3">
-        <v>38400</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
+        <v>60600</v>
+      </c>
+      <c r="I12" s="3">
+        <v>38000</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -874,9 +887,12 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,9 +926,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -920,14 +939,14 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-58500</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>-57900</v>
+      </c>
+      <c r="G14" s="3">
         <v>3300</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -943,12 +962,15 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -982,9 +1004,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,28 +1021,29 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>310100</v>
+        <v>248500</v>
       </c>
       <c r="E17" s="3">
-        <v>140700</v>
+        <v>306900</v>
       </c>
       <c r="F17" s="3">
-        <v>218000</v>
+        <v>139200</v>
       </c>
       <c r="G17" s="3">
-        <v>70700</v>
+        <v>215800</v>
       </c>
       <c r="H17" s="3">
-        <v>42000</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>70000</v>
+      </c>
+      <c r="I17" s="3">
+        <v>41600</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1031,29 +1057,32 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-297500</v>
+      <c r="D18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>80900</v>
+        <v>-294400</v>
       </c>
       <c r="F18" s="3">
-        <v>-213700</v>
+        <v>80100</v>
       </c>
       <c r="G18" s="3">
-        <v>-63000</v>
+        <v>-211500</v>
       </c>
       <c r="H18" s="3">
-        <v>-40400</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>-62400</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-39900</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1067,9 +1096,12 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,29 +1116,30 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-37800</v>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>-11400</v>
+        <v>-37400</v>
       </c>
       <c r="F20" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="G20" s="3">
         <v>5600</v>
       </c>
-      <c r="G20" s="3">
-        <v>7100</v>
-      </c>
       <c r="H20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1700</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1119,29 +1152,32 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-333200</v>
+        <v>-352600</v>
       </c>
       <c r="E21" s="3">
-        <v>71600</v>
+        <v>-329800</v>
       </c>
       <c r="F21" s="3">
-        <v>-206700</v>
+        <v>70900</v>
       </c>
       <c r="G21" s="3">
-        <v>-55000</v>
+        <v>-204600</v>
       </c>
       <c r="H21" s="3">
-        <v>-41800</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>-54400</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-41400</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1155,9 +1191,12 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1165,20 +1204,20 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>800</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1191,29 +1230,32 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-335300</v>
+        <v>-356300</v>
       </c>
       <c r="E23" s="3">
-        <v>69400</v>
+        <v>-331900</v>
       </c>
       <c r="F23" s="3">
-        <v>-208500</v>
+        <v>68700</v>
       </c>
       <c r="G23" s="3">
-        <v>-57600</v>
+        <v>-206400</v>
       </c>
       <c r="H23" s="3">
-        <v>-42800</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>-57000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-42400</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1227,29 +1269,32 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-500</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>1800</v>
+        <v>-400</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1263,9 +1308,12 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,29 +1347,32 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-334900</v>
+        <v>-356400</v>
       </c>
       <c r="E26" s="3">
-        <v>67600</v>
+        <v>-331400</v>
       </c>
       <c r="F26" s="3">
-        <v>-208500</v>
+        <v>66900</v>
       </c>
       <c r="G26" s="3">
-        <v>-57900</v>
+        <v>-206400</v>
       </c>
       <c r="H26" s="3">
-        <v>-42800</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>-57300</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-42400</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1335,29 +1386,32 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-334900</v>
+        <v>-356400</v>
       </c>
       <c r="E27" s="3">
-        <v>67600</v>
+        <v>-331400</v>
       </c>
       <c r="F27" s="3">
-        <v>-213300</v>
+        <v>66900</v>
       </c>
       <c r="G27" s="3">
-        <v>-57900</v>
+        <v>-211100</v>
       </c>
       <c r="H27" s="3">
-        <v>-42800</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>-57300</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-42400</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1371,9 +1425,12 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,30 +1581,33 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>37800</v>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>11400</v>
+        <v>37400</v>
       </c>
       <c r="F32" s="3">
+        <v>11200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-5600</v>
       </c>
-      <c r="G32" s="3">
-        <v>-7100</v>
-      </c>
       <c r="H32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="I32" s="3">
         <v>1700</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1551,29 +1620,32 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-334900</v>
+        <v>-356400</v>
       </c>
       <c r="E33" s="3">
-        <v>67600</v>
+        <v>-331400</v>
       </c>
       <c r="F33" s="3">
-        <v>-213300</v>
+        <v>66900</v>
       </c>
       <c r="G33" s="3">
-        <v>-57900</v>
+        <v>-211100</v>
       </c>
       <c r="H33" s="3">
-        <v>-42800</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>-57300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-42400</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1587,9 +1659,12 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,29 +1698,32 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-334900</v>
+        <v>-356400</v>
       </c>
       <c r="E35" s="3">
-        <v>67600</v>
+        <v>-331400</v>
       </c>
       <c r="F35" s="3">
-        <v>-213300</v>
+        <v>66900</v>
       </c>
       <c r="G35" s="3">
-        <v>-57900</v>
+        <v>-211100</v>
       </c>
       <c r="H35" s="3">
-        <v>-42800</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>-57300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-42400</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1659,35 +1737,38 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1700,9 +1781,12 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,28 +1818,29 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>506100</v>
+        <v>456900</v>
       </c>
       <c r="E41" s="3">
-        <v>683500</v>
+        <v>500900</v>
       </c>
       <c r="F41" s="3">
-        <v>163400</v>
+        <v>676500</v>
       </c>
       <c r="G41" s="3">
-        <v>228100</v>
+        <v>161700</v>
       </c>
       <c r="H41" s="3">
-        <v>44200</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>225800</v>
+      </c>
+      <c r="I41" s="3">
+        <v>43800</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1768,29 +1854,32 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>108200</v>
+        <v>33500</v>
       </c>
       <c r="E42" s="3">
+        <v>107100</v>
+      </c>
+      <c r="F42" s="3">
         <v>4500</v>
       </c>
-      <c r="F42" s="3">
-        <v>4600</v>
-      </c>
       <c r="G42" s="3">
-        <v>31000</v>
+        <v>4500</v>
       </c>
       <c r="H42" s="3">
-        <v>38200</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
+        <v>30600</v>
+      </c>
+      <c r="I42" s="3">
+        <v>37800</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1804,30 +1893,33 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>54100</v>
+        <v>1200</v>
       </c>
       <c r="E43" s="3">
-        <v>63600</v>
+        <v>53500</v>
       </c>
       <c r="F43" s="3">
+        <v>63000</v>
+      </c>
+      <c r="G43" s="3">
         <v>4200</v>
       </c>
-      <c r="G43" s="3">
-        <v>8200</v>
-      </c>
       <c r="H43" s="3">
+        <v>8100</v>
+      </c>
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1840,18 +1932,21 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
         <v>3900</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1867,8 +1962,8 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -1876,29 +1971,32 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14500</v>
+        <v>24000</v>
       </c>
       <c r="E45" s="3">
-        <v>15800</v>
+        <v>14400</v>
       </c>
       <c r="F45" s="3">
-        <v>23300</v>
+        <v>15700</v>
       </c>
       <c r="G45" s="3">
-        <v>25300</v>
+        <v>23100</v>
       </c>
       <c r="H45" s="3">
-        <v>16300</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+        <v>25000</v>
+      </c>
+      <c r="I45" s="3">
+        <v>16200</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1912,29 +2010,32 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>686800</v>
+        <v>515500</v>
       </c>
       <c r="E46" s="3">
-        <v>767500</v>
+        <v>679700</v>
       </c>
       <c r="F46" s="3">
-        <v>195500</v>
+        <v>759600</v>
       </c>
       <c r="G46" s="3">
-        <v>292500</v>
+        <v>193500</v>
       </c>
       <c r="H46" s="3">
-        <v>99300</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>289500</v>
+      </c>
+      <c r="I46" s="3">
+        <v>98300</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1948,20 +2049,23 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>50600</v>
+        <v>4400</v>
       </c>
       <c r="E47" s="3">
-        <v>95500</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+        <v>50100</v>
+      </c>
+      <c r="F47" s="3">
+        <v>94500</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1978,36 +2082,39 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22800</v>
+        <v>17600</v>
       </c>
       <c r="E48" s="3">
-        <v>5800</v>
+        <v>22500</v>
       </c>
       <c r="F48" s="3">
-        <v>6700</v>
+        <v>5700</v>
       </c>
       <c r="G48" s="3">
-        <v>4000</v>
+        <v>6600</v>
       </c>
       <c r="H48" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I48" s="3">
         <v>3200</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,29 +2127,32 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>40500</v>
+        <v>40000</v>
       </c>
       <c r="E49" s="3">
-        <v>40600</v>
+        <v>40100</v>
       </c>
       <c r="F49" s="3">
-        <v>44700</v>
+        <v>40200</v>
       </c>
       <c r="G49" s="3">
-        <v>44700</v>
+        <v>44300</v>
       </c>
       <c r="H49" s="3">
-        <v>44700</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+        <v>44300</v>
+      </c>
+      <c r="I49" s="3">
+        <v>44300</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2056,9 +2166,12 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,24 +2244,27 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E52" s="3">
         <v>3800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2600</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2161,12 +2280,15 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,29 +2322,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>804400</v>
+        <v>579100</v>
       </c>
       <c r="E54" s="3">
-        <v>909700</v>
+        <v>796200</v>
       </c>
       <c r="F54" s="3">
-        <v>249600</v>
+        <v>900300</v>
       </c>
       <c r="G54" s="3">
-        <v>341200</v>
+        <v>247000</v>
       </c>
       <c r="H54" s="3">
-        <v>147300</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>337700</v>
+      </c>
+      <c r="I54" s="3">
+        <v>145800</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2236,9 +2361,12 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,17 +2398,18 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="3">
         <v>8200</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2295,8 +2425,8 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
+      <c r="K57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -2304,29 +2434,32 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>11500</v>
+        <v>7100</v>
       </c>
       <c r="H58" s="3">
-        <v>14200</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+        <v>11400</v>
+      </c>
+      <c r="I58" s="3">
+        <v>14100</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2340,29 +2473,32 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>81400</v>
+        <v>105100</v>
       </c>
       <c r="E59" s="3">
-        <v>82700</v>
+        <v>80500</v>
       </c>
       <c r="F59" s="3">
-        <v>77300</v>
+        <v>81900</v>
       </c>
       <c r="G59" s="3">
-        <v>38200</v>
+        <v>76500</v>
       </c>
       <c r="H59" s="3">
-        <v>13800</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>37800</v>
+      </c>
+      <c r="I59" s="3">
+        <v>13700</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2376,29 +2512,32 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>89600</v>
+        <v>107800</v>
       </c>
       <c r="E60" s="3">
-        <v>82700</v>
+        <v>88700</v>
       </c>
       <c r="F60" s="3">
-        <v>84500</v>
+        <v>81900</v>
       </c>
       <c r="G60" s="3">
-        <v>49700</v>
+        <v>83700</v>
       </c>
       <c r="H60" s="3">
-        <v>28000</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>49200</v>
+      </c>
+      <c r="I60" s="3">
+        <v>27700</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2412,9 +2551,12 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2425,16 +2567,16 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>9800</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>9600</v>
+        <v>9700</v>
       </c>
       <c r="H61" s="3">
-        <v>16400</v>
+        <v>9500</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>16200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2448,29 +2590,32 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>60000</v>
+        <v>57700</v>
       </c>
       <c r="E62" s="3">
-        <v>18700</v>
+        <v>59400</v>
       </c>
       <c r="F62" s="3">
+        <v>18600</v>
+      </c>
+      <c r="G62" s="3">
         <v>1600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>400</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2484,9 +2629,12 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,29 +2746,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>149600</v>
+        <v>165400</v>
       </c>
       <c r="E66" s="3">
-        <v>101500</v>
+        <v>148100</v>
       </c>
       <c r="F66" s="3">
-        <v>96000</v>
+        <v>100500</v>
       </c>
       <c r="G66" s="3">
-        <v>59700</v>
+        <v>95000</v>
       </c>
       <c r="H66" s="3">
-        <v>88300</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>59100</v>
+      </c>
+      <c r="I66" s="3">
+        <v>87400</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2628,9 +2785,12 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2729,16 +2896,16 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>445800</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>418700</v>
+        <v>441300</v>
       </c>
       <c r="H70" s="3">
-        <v>102000</v>
+        <v>414400</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>101000</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,29 +2958,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-625400</v>
+        <v>-975500</v>
       </c>
       <c r="E72" s="3">
-        <v>-290600</v>
+        <v>-619000</v>
       </c>
       <c r="F72" s="3">
-        <v>-358200</v>
+        <v>-287600</v>
       </c>
       <c r="G72" s="3">
-        <v>-145700</v>
+        <v>-354600</v>
       </c>
       <c r="H72" s="3">
-        <v>-51400</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>-144200</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-50900</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2824,9 +2997,12 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,29 +3114,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>654800</v>
+        <v>413600</v>
       </c>
       <c r="E76" s="3">
-        <v>808200</v>
+        <v>648100</v>
       </c>
       <c r="F76" s="3">
-        <v>-292200</v>
+        <v>799900</v>
       </c>
       <c r="G76" s="3">
-        <v>-137200</v>
+        <v>-289300</v>
       </c>
       <c r="H76" s="3">
-        <v>-43000</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>-135700</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-42600</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2968,9 +3153,12 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,35 +3192,38 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3045,29 +3236,32 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-334900</v>
+        <v>-356400</v>
       </c>
       <c r="E81" s="3">
-        <v>67600</v>
+        <v>-331400</v>
       </c>
       <c r="F81" s="3">
-        <v>-213300</v>
+        <v>66900</v>
       </c>
       <c r="G81" s="3">
-        <v>-57900</v>
+        <v>-211100</v>
       </c>
       <c r="H81" s="3">
-        <v>-42800</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>-57300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-42400</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3081,9 +3275,12 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,29 +3295,30 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2100</v>
+        <v>3700</v>
       </c>
       <c r="E83" s="3">
         <v>2100</v>
       </c>
       <c r="F83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G83" s="3">
         <v>1400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3133,9 +3331,12 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,29 +3526,32 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-139800</v>
+        <v>-156800</v>
       </c>
       <c r="E89" s="3">
-        <v>62300</v>
+        <v>-138300</v>
       </c>
       <c r="F89" s="3">
-        <v>-124700</v>
+        <v>61600</v>
       </c>
       <c r="G89" s="3">
-        <v>-40300</v>
+        <v>-123400</v>
       </c>
       <c r="H89" s="3">
-        <v>-36200</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>-39900</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-35800</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3349,9 +3565,12 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,29 +3585,30 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4300</v>
       </c>
-      <c r="E91" s="3">
-        <v>-1200</v>
-      </c>
       <c r="F91" s="3">
-        <v>-1800</v>
+        <v>-1100</v>
       </c>
       <c r="G91" s="3">
-        <v>-2100</v>
+        <v>-1700</v>
       </c>
       <c r="H91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I91" s="3">
         <v>-2900</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3401,9 +3621,12 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,29 +3699,32 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-104400</v>
+        <v>65200</v>
       </c>
       <c r="E94" s="3">
-        <v>-29000</v>
+        <v>-103400</v>
       </c>
       <c r="F94" s="3">
-        <v>30500</v>
+        <v>-28700</v>
       </c>
       <c r="G94" s="3">
+        <v>30200</v>
+      </c>
+      <c r="H94" s="3">
         <v>1400</v>
       </c>
-      <c r="H94" s="3">
-        <v>-22600</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="I94" s="3">
+        <v>-22400</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3509,9 +3738,12 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,8 +3758,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,29 +3911,32 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>85300</v>
+        <v>6000</v>
       </c>
       <c r="E100" s="3">
-        <v>494100</v>
+        <v>84400</v>
       </c>
       <c r="F100" s="3">
-        <v>21900</v>
+        <v>489100</v>
       </c>
       <c r="G100" s="3">
-        <v>212500</v>
+        <v>21700</v>
       </c>
       <c r="H100" s="3">
-        <v>108900</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+        <v>210300</v>
+      </c>
+      <c r="I100" s="3">
+        <v>107800</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3705,29 +3950,32 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-18500</v>
+        <v>55300</v>
       </c>
       <c r="E101" s="3">
-        <v>-15300</v>
+        <v>-18300</v>
       </c>
       <c r="F101" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="G101" s="3">
         <v>2200</v>
       </c>
-      <c r="G101" s="3">
-        <v>8600</v>
-      </c>
       <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+        <v>8500</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3741,29 +3989,32 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-177400</v>
+        <v>-30300</v>
       </c>
       <c r="E102" s="3">
-        <v>512100</v>
+        <v>-175600</v>
       </c>
       <c r="F102" s="3">
-        <v>-70000</v>
+        <v>506800</v>
       </c>
       <c r="G102" s="3">
-        <v>182100</v>
+        <v>-69300</v>
       </c>
       <c r="H102" s="3">
-        <v>50100</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+        <v>180300</v>
+      </c>
+      <c r="I102" s="3">
+        <v>49600</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3777,7 +4028,10 @@
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/IMAB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IMAB_YR_FIN.xlsx
@@ -727,16 +727,16 @@
         <v>3</v>
       </c>
       <c r="E8" s="3">
-        <v>12500</v>
+        <v>12100</v>
       </c>
       <c r="F8" s="3">
-        <v>219300</v>
+        <v>212500</v>
       </c>
       <c r="G8" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="H8" s="3">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="I8" s="3">
         <v>1600</v>
@@ -763,10 +763,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="E9" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -805,7 +805,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -858,22 +858,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>128600</v>
+        <v>124700</v>
       </c>
       <c r="E12" s="3">
-        <v>172400</v>
+        <v>167100</v>
       </c>
       <c r="F12" s="3">
-        <v>140000</v>
+        <v>135700</v>
       </c>
       <c r="G12" s="3">
-        <v>119500</v>
+        <v>115800</v>
       </c>
       <c r="H12" s="3">
-        <v>60600</v>
+        <v>58700</v>
       </c>
       <c r="I12" s="3">
-        <v>38000</v>
+        <v>36800</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -942,10 +942,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>-57900</v>
+        <v>-56200</v>
       </c>
       <c r="G14" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -1028,22 +1028,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>248500</v>
+        <v>240800</v>
       </c>
       <c r="E17" s="3">
-        <v>306900</v>
+        <v>297500</v>
       </c>
       <c r="F17" s="3">
-        <v>139200</v>
+        <v>135000</v>
       </c>
       <c r="G17" s="3">
-        <v>215800</v>
+        <v>209200</v>
       </c>
       <c r="H17" s="3">
-        <v>70000</v>
+        <v>67800</v>
       </c>
       <c r="I17" s="3">
-        <v>41600</v>
+        <v>40300</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1070,19 +1070,19 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-294400</v>
+        <v>-285400</v>
       </c>
       <c r="F18" s="3">
-        <v>80100</v>
+        <v>77600</v>
       </c>
       <c r="G18" s="3">
-        <v>-211500</v>
+        <v>-205000</v>
       </c>
       <c r="H18" s="3">
-        <v>-62400</v>
+        <v>-60400</v>
       </c>
       <c r="I18" s="3">
-        <v>-39900</v>
+        <v>-38700</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1126,19 +1126,19 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>-37400</v>
+        <v>-36300</v>
       </c>
       <c r="F20" s="3">
-        <v>-11200</v>
+        <v>-10900</v>
       </c>
       <c r="G20" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="H20" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="I20" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1162,22 +1162,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-352600</v>
+        <v>-341800</v>
       </c>
       <c r="E21" s="3">
-        <v>-329800</v>
+        <v>-319700</v>
       </c>
       <c r="F21" s="3">
-        <v>70900</v>
+        <v>68700</v>
       </c>
       <c r="G21" s="3">
-        <v>-204600</v>
+        <v>-198300</v>
       </c>
       <c r="H21" s="3">
-        <v>-54400</v>
+        <v>-52700</v>
       </c>
       <c r="I21" s="3">
-        <v>-41400</v>
+        <v>-40100</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1213,7 +1213,7 @@
         <v>400</v>
       </c>
       <c r="H22" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I22" s="3">
         <v>800</v>
@@ -1240,22 +1240,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-356300</v>
+        <v>-345400</v>
       </c>
       <c r="E23" s="3">
-        <v>-331900</v>
+        <v>-321700</v>
       </c>
       <c r="F23" s="3">
-        <v>68700</v>
+        <v>66600</v>
       </c>
       <c r="G23" s="3">
-        <v>-206400</v>
+        <v>-200000</v>
       </c>
       <c r="H23" s="3">
-        <v>-57000</v>
+        <v>-55300</v>
       </c>
       <c r="I23" s="3">
-        <v>-42400</v>
+        <v>-41100</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1357,22 +1357,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-356400</v>
+        <v>-345500</v>
       </c>
       <c r="E26" s="3">
-        <v>-331400</v>
+        <v>-321200</v>
       </c>
       <c r="F26" s="3">
-        <v>66900</v>
+        <v>64900</v>
       </c>
       <c r="G26" s="3">
-        <v>-206400</v>
+        <v>-200000</v>
       </c>
       <c r="H26" s="3">
-        <v>-57300</v>
+        <v>-55500</v>
       </c>
       <c r="I26" s="3">
-        <v>-42400</v>
+        <v>-41100</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1396,22 +1396,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-356400</v>
+        <v>-345500</v>
       </c>
       <c r="E27" s="3">
-        <v>-331400</v>
+        <v>-321200</v>
       </c>
       <c r="F27" s="3">
-        <v>66900</v>
+        <v>64900</v>
       </c>
       <c r="G27" s="3">
-        <v>-211100</v>
+        <v>-204600</v>
       </c>
       <c r="H27" s="3">
-        <v>-57300</v>
+        <v>-55500</v>
       </c>
       <c r="I27" s="3">
-        <v>-42400</v>
+        <v>-41100</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1594,19 +1594,19 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>37400</v>
+        <v>36300</v>
       </c>
       <c r="F32" s="3">
-        <v>11200</v>
+        <v>10900</v>
       </c>
       <c r="G32" s="3">
-        <v>-5600</v>
+        <v>-5400</v>
       </c>
       <c r="H32" s="3">
-        <v>-7000</v>
+        <v>-6800</v>
       </c>
       <c r="I32" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1630,22 +1630,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-356400</v>
+        <v>-345500</v>
       </c>
       <c r="E33" s="3">
-        <v>-331400</v>
+        <v>-321200</v>
       </c>
       <c r="F33" s="3">
-        <v>66900</v>
+        <v>64900</v>
       </c>
       <c r="G33" s="3">
-        <v>-211100</v>
+        <v>-204600</v>
       </c>
       <c r="H33" s="3">
-        <v>-57300</v>
+        <v>-55500</v>
       </c>
       <c r="I33" s="3">
-        <v>-42400</v>
+        <v>-41100</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1708,22 +1708,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-356400</v>
+        <v>-345500</v>
       </c>
       <c r="E35" s="3">
-        <v>-331400</v>
+        <v>-321200</v>
       </c>
       <c r="F35" s="3">
-        <v>66900</v>
+        <v>64900</v>
       </c>
       <c r="G35" s="3">
-        <v>-211100</v>
+        <v>-204600</v>
       </c>
       <c r="H35" s="3">
-        <v>-57300</v>
+        <v>-55500</v>
       </c>
       <c r="I35" s="3">
-        <v>-42400</v>
+        <v>-41100</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1825,22 +1825,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>456900</v>
+        <v>442800</v>
       </c>
       <c r="E41" s="3">
-        <v>500900</v>
+        <v>485500</v>
       </c>
       <c r="F41" s="3">
-        <v>676500</v>
+        <v>655700</v>
       </c>
       <c r="G41" s="3">
-        <v>161700</v>
+        <v>156700</v>
       </c>
       <c r="H41" s="3">
-        <v>225800</v>
+        <v>218800</v>
       </c>
       <c r="I41" s="3">
-        <v>43800</v>
+        <v>42400</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1864,22 +1864,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>33500</v>
+        <v>32400</v>
       </c>
       <c r="E42" s="3">
-        <v>107100</v>
+        <v>103800</v>
       </c>
       <c r="F42" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="G42" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="H42" s="3">
-        <v>30600</v>
+        <v>29700</v>
       </c>
       <c r="I42" s="3">
-        <v>37800</v>
+        <v>36700</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1903,19 +1903,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E43" s="3">
-        <v>53500</v>
+        <v>51900</v>
       </c>
       <c r="F43" s="3">
-        <v>63000</v>
+        <v>61000</v>
       </c>
       <c r="G43" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="H43" s="3">
-        <v>8100</v>
+        <v>7900</v>
       </c>
       <c r="I43" s="3">
         <v>500</v>
@@ -1945,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
@@ -1981,22 +1981,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>24000</v>
+        <v>23300</v>
       </c>
       <c r="E45" s="3">
-        <v>14400</v>
+        <v>13900</v>
       </c>
       <c r="F45" s="3">
+        <v>15200</v>
+      </c>
+      <c r="G45" s="3">
+        <v>22400</v>
+      </c>
+      <c r="H45" s="3">
+        <v>24200</v>
+      </c>
+      <c r="I45" s="3">
         <v>15700</v>
-      </c>
-      <c r="G45" s="3">
-        <v>23100</v>
-      </c>
-      <c r="H45" s="3">
-        <v>25000</v>
-      </c>
-      <c r="I45" s="3">
-        <v>16200</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -2020,22 +2020,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>515500</v>
+        <v>499700</v>
       </c>
       <c r="E46" s="3">
-        <v>679700</v>
+        <v>658800</v>
       </c>
       <c r="F46" s="3">
-        <v>759600</v>
+        <v>736300</v>
       </c>
       <c r="G46" s="3">
-        <v>193500</v>
+        <v>187600</v>
       </c>
       <c r="H46" s="3">
-        <v>289500</v>
+        <v>280600</v>
       </c>
       <c r="I46" s="3">
-        <v>98300</v>
+        <v>95300</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2059,13 +2059,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="E47" s="3">
-        <v>50100</v>
+        <v>48500</v>
       </c>
       <c r="F47" s="3">
-        <v>94500</v>
+        <v>91600</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -2098,22 +2098,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17600</v>
+        <v>17100</v>
       </c>
       <c r="E48" s="3">
-        <v>22500</v>
+        <v>21800</v>
       </c>
       <c r="F48" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="G48" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="H48" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="I48" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2137,22 +2137,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>40000</v>
+        <v>38800</v>
       </c>
       <c r="E49" s="3">
-        <v>40100</v>
+        <v>38900</v>
       </c>
       <c r="F49" s="3">
-        <v>40200</v>
+        <v>39000</v>
       </c>
       <c r="G49" s="3">
-        <v>44300</v>
+        <v>42900</v>
       </c>
       <c r="H49" s="3">
-        <v>44300</v>
+        <v>42900</v>
       </c>
       <c r="I49" s="3">
-        <v>44300</v>
+        <v>42900</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2254,16 +2254,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E52" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="F52" s="3">
         <v>300</v>
       </c>
       <c r="G52" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2332,22 +2332,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>579100</v>
+        <v>561300</v>
       </c>
       <c r="E54" s="3">
-        <v>796200</v>
+        <v>771700</v>
       </c>
       <c r="F54" s="3">
-        <v>900300</v>
+        <v>872700</v>
       </c>
       <c r="G54" s="3">
-        <v>247000</v>
+        <v>239400</v>
       </c>
       <c r="H54" s="3">
-        <v>337700</v>
+        <v>327400</v>
       </c>
       <c r="I54" s="3">
-        <v>145800</v>
+        <v>141300</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2408,7 +2408,7 @@
         <v>3</v>
       </c>
       <c r="E57" s="3">
-        <v>8200</v>
+        <v>7900</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -2444,7 +2444,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -2453,13 +2453,13 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>7100</v>
+        <v>6900</v>
       </c>
       <c r="H58" s="3">
-        <v>11400</v>
+        <v>11000</v>
       </c>
       <c r="I58" s="3">
-        <v>14100</v>
+        <v>13600</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2483,22 +2483,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>105100</v>
+        <v>101800</v>
       </c>
       <c r="E59" s="3">
-        <v>80500</v>
+        <v>78100</v>
       </c>
       <c r="F59" s="3">
-        <v>81900</v>
+        <v>79400</v>
       </c>
       <c r="G59" s="3">
-        <v>76500</v>
+        <v>74200</v>
       </c>
       <c r="H59" s="3">
-        <v>37800</v>
+        <v>36700</v>
       </c>
       <c r="I59" s="3">
-        <v>13700</v>
+        <v>13200</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2522,22 +2522,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>107800</v>
+        <v>104500</v>
       </c>
       <c r="E60" s="3">
-        <v>88700</v>
+        <v>86000</v>
       </c>
       <c r="F60" s="3">
-        <v>81900</v>
+        <v>79400</v>
       </c>
       <c r="G60" s="3">
-        <v>83700</v>
+        <v>81100</v>
       </c>
       <c r="H60" s="3">
-        <v>49200</v>
+        <v>47700</v>
       </c>
       <c r="I60" s="3">
-        <v>27700</v>
+        <v>26900</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2570,13 +2570,13 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>9700</v>
+        <v>9400</v>
       </c>
       <c r="H61" s="3">
-        <v>9500</v>
+        <v>9200</v>
       </c>
       <c r="I61" s="3">
-        <v>16200</v>
+        <v>15700</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2600,19 +2600,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>57700</v>
+        <v>55900</v>
       </c>
       <c r="E62" s="3">
-        <v>59400</v>
+        <v>57500</v>
       </c>
       <c r="F62" s="3">
-        <v>18600</v>
+        <v>18000</v>
       </c>
       <c r="G62" s="3">
         <v>1600</v>
       </c>
       <c r="H62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
@@ -2756,22 +2756,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>165400</v>
+        <v>160300</v>
       </c>
       <c r="E66" s="3">
-        <v>148100</v>
+        <v>143500</v>
       </c>
       <c r="F66" s="3">
-        <v>100500</v>
+        <v>97400</v>
       </c>
       <c r="G66" s="3">
-        <v>95000</v>
+        <v>92000</v>
       </c>
       <c r="H66" s="3">
-        <v>59100</v>
+        <v>57300</v>
       </c>
       <c r="I66" s="3">
-        <v>87400</v>
+        <v>84700</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2899,13 +2899,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>441300</v>
+        <v>427700</v>
       </c>
       <c r="H70" s="3">
-        <v>414400</v>
+        <v>401700</v>
       </c>
       <c r="I70" s="3">
-        <v>101000</v>
+        <v>97900</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2968,22 +2968,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-975500</v>
+        <v>-945500</v>
       </c>
       <c r="E72" s="3">
-        <v>-619000</v>
+        <v>-600000</v>
       </c>
       <c r="F72" s="3">
-        <v>-287600</v>
+        <v>-278800</v>
       </c>
       <c r="G72" s="3">
-        <v>-354600</v>
+        <v>-343700</v>
       </c>
       <c r="H72" s="3">
-        <v>-144200</v>
+        <v>-139800</v>
       </c>
       <c r="I72" s="3">
-        <v>-50900</v>
+        <v>-49300</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -3124,22 +3124,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>413600</v>
+        <v>400900</v>
       </c>
       <c r="E76" s="3">
-        <v>648100</v>
+        <v>628200</v>
       </c>
       <c r="F76" s="3">
-        <v>799900</v>
+        <v>775300</v>
       </c>
       <c r="G76" s="3">
-        <v>-289300</v>
+        <v>-280300</v>
       </c>
       <c r="H76" s="3">
-        <v>-135700</v>
+        <v>-131600</v>
       </c>
       <c r="I76" s="3">
-        <v>-42600</v>
+        <v>-41300</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3246,22 +3246,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-356400</v>
+        <v>-345500</v>
       </c>
       <c r="E81" s="3">
-        <v>-331400</v>
+        <v>-321200</v>
       </c>
       <c r="F81" s="3">
-        <v>66900</v>
+        <v>64900</v>
       </c>
       <c r="G81" s="3">
-        <v>-211100</v>
+        <v>-204600</v>
       </c>
       <c r="H81" s="3">
-        <v>-57300</v>
+        <v>-55500</v>
       </c>
       <c r="I81" s="3">
-        <v>-42400</v>
+        <v>-41100</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3302,10 +3302,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="E83" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F83" s="3">
         <v>2000</v>
@@ -3314,7 +3314,7 @@
         <v>1400</v>
       </c>
       <c r="H83" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
@@ -3536,22 +3536,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-156800</v>
+        <v>-151900</v>
       </c>
       <c r="E89" s="3">
-        <v>-138300</v>
+        <v>-134100</v>
       </c>
       <c r="F89" s="3">
-        <v>61600</v>
+        <v>59700</v>
       </c>
       <c r="G89" s="3">
-        <v>-123400</v>
+        <v>-119600</v>
       </c>
       <c r="H89" s="3">
-        <v>-39900</v>
+        <v>-38700</v>
       </c>
       <c r="I89" s="3">
-        <v>-35800</v>
+        <v>-34700</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3592,10 +3592,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6500</v>
+        <v>-6300</v>
       </c>
       <c r="E91" s="3">
-        <v>-4300</v>
+        <v>-4100</v>
       </c>
       <c r="F91" s="3">
         <v>-1100</v>
@@ -3607,7 +3607,7 @@
         <v>-2000</v>
       </c>
       <c r="I91" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3709,22 +3709,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>65200</v>
+        <v>63200</v>
       </c>
       <c r="E94" s="3">
-        <v>-103400</v>
+        <v>-100200</v>
       </c>
       <c r="F94" s="3">
-        <v>-28700</v>
+        <v>-27800</v>
       </c>
       <c r="G94" s="3">
-        <v>30200</v>
+        <v>29300</v>
       </c>
       <c r="H94" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="I94" s="3">
-        <v>-22400</v>
+        <v>-21700</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3921,22 +3921,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="E100" s="3">
-        <v>84400</v>
+        <v>81800</v>
       </c>
       <c r="F100" s="3">
-        <v>489100</v>
+        <v>474000</v>
       </c>
       <c r="G100" s="3">
-        <v>21700</v>
+        <v>21000</v>
       </c>
       <c r="H100" s="3">
-        <v>210300</v>
+        <v>203900</v>
       </c>
       <c r="I100" s="3">
-        <v>107800</v>
+        <v>104500</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3960,19 +3960,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>55300</v>
+        <v>53600</v>
       </c>
       <c r="E101" s="3">
-        <v>-18300</v>
+        <v>-17700</v>
       </c>
       <c r="F101" s="3">
-        <v>-15200</v>
+        <v>-14700</v>
       </c>
       <c r="G101" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="H101" s="3">
-        <v>8500</v>
+        <v>8200</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
@@ -3999,22 +3999,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-30300</v>
+        <v>-29300</v>
       </c>
       <c r="E102" s="3">
-        <v>-175600</v>
+        <v>-170200</v>
       </c>
       <c r="F102" s="3">
-        <v>506800</v>
+        <v>491300</v>
       </c>
       <c r="G102" s="3">
-        <v>-69300</v>
+        <v>-67200</v>
       </c>
       <c r="H102" s="3">
-        <v>180300</v>
+        <v>174700</v>
       </c>
       <c r="I102" s="3">
-        <v>49600</v>
+        <v>48000</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/IMAB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IMAB_YR_FIN.xlsx
@@ -727,10 +727,10 @@
         <v>3</v>
       </c>
       <c r="E8" s="3">
-        <v>12100</v>
+        <v>12200</v>
       </c>
       <c r="F8" s="3">
-        <v>212500</v>
+        <v>213000</v>
       </c>
       <c r="G8" s="3">
         <v>4100</v>
@@ -858,22 +858,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>124700</v>
+        <v>124900</v>
       </c>
       <c r="E12" s="3">
-        <v>167100</v>
+        <v>167500</v>
       </c>
       <c r="F12" s="3">
-        <v>135700</v>
+        <v>136000</v>
       </c>
       <c r="G12" s="3">
-        <v>115800</v>
+        <v>116000</v>
       </c>
       <c r="H12" s="3">
-        <v>58700</v>
+        <v>58800</v>
       </c>
       <c r="I12" s="3">
-        <v>36800</v>
+        <v>36900</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>-56200</v>
+        <v>-56300</v>
       </c>
       <c r="G14" s="3">
         <v>3200</v>
@@ -1028,22 +1028,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>240800</v>
+        <v>241400</v>
       </c>
       <c r="E17" s="3">
-        <v>297500</v>
+        <v>298200</v>
       </c>
       <c r="F17" s="3">
-        <v>135000</v>
+        <v>135200</v>
       </c>
       <c r="G17" s="3">
-        <v>209200</v>
+        <v>209600</v>
       </c>
       <c r="H17" s="3">
-        <v>67800</v>
+        <v>68000</v>
       </c>
       <c r="I17" s="3">
-        <v>40300</v>
+        <v>40400</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1070,19 +1070,19 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-285400</v>
+        <v>-286000</v>
       </c>
       <c r="F18" s="3">
-        <v>77600</v>
+        <v>77800</v>
       </c>
       <c r="G18" s="3">
-        <v>-205000</v>
+        <v>-205500</v>
       </c>
       <c r="H18" s="3">
-        <v>-60400</v>
+        <v>-60600</v>
       </c>
       <c r="I18" s="3">
-        <v>-38700</v>
+        <v>-38800</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1126,7 +1126,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>-36300</v>
+        <v>-36400</v>
       </c>
       <c r="F20" s="3">
         <v>-10900</v>
@@ -1162,22 +1162,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-341800</v>
+        <v>-342500</v>
       </c>
       <c r="E21" s="3">
-        <v>-319700</v>
+        <v>-320400</v>
       </c>
       <c r="F21" s="3">
-        <v>68700</v>
+        <v>68800</v>
       </c>
       <c r="G21" s="3">
-        <v>-198300</v>
+        <v>-198700</v>
       </c>
       <c r="H21" s="3">
-        <v>-52700</v>
+        <v>-52800</v>
       </c>
       <c r="I21" s="3">
-        <v>-40100</v>
+        <v>-40200</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1240,22 +1240,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-345400</v>
+        <v>-346100</v>
       </c>
       <c r="E23" s="3">
-        <v>-321700</v>
+        <v>-322400</v>
       </c>
       <c r="F23" s="3">
-        <v>66600</v>
+        <v>66700</v>
       </c>
       <c r="G23" s="3">
-        <v>-200000</v>
+        <v>-200500</v>
       </c>
       <c r="H23" s="3">
-        <v>-55300</v>
+        <v>-55400</v>
       </c>
       <c r="I23" s="3">
-        <v>-41100</v>
+        <v>-41200</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1357,22 +1357,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-345500</v>
+        <v>-346200</v>
       </c>
       <c r="E26" s="3">
-        <v>-321200</v>
+        <v>-321900</v>
       </c>
       <c r="F26" s="3">
-        <v>64900</v>
+        <v>65000</v>
       </c>
       <c r="G26" s="3">
-        <v>-200000</v>
+        <v>-200500</v>
       </c>
       <c r="H26" s="3">
-        <v>-55500</v>
+        <v>-55600</v>
       </c>
       <c r="I26" s="3">
-        <v>-41100</v>
+        <v>-41200</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1396,22 +1396,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-345500</v>
+        <v>-346200</v>
       </c>
       <c r="E27" s="3">
-        <v>-321200</v>
+        <v>-321900</v>
       </c>
       <c r="F27" s="3">
-        <v>64900</v>
+        <v>65000</v>
       </c>
       <c r="G27" s="3">
-        <v>-204600</v>
+        <v>-205000</v>
       </c>
       <c r="H27" s="3">
-        <v>-55500</v>
+        <v>-55600</v>
       </c>
       <c r="I27" s="3">
-        <v>-41100</v>
+        <v>-41200</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1594,7 +1594,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>36300</v>
+        <v>36400</v>
       </c>
       <c r="F32" s="3">
         <v>10900</v>
@@ -1630,22 +1630,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-345500</v>
+        <v>-346200</v>
       </c>
       <c r="E33" s="3">
-        <v>-321200</v>
+        <v>-321900</v>
       </c>
       <c r="F33" s="3">
-        <v>64900</v>
+        <v>65000</v>
       </c>
       <c r="G33" s="3">
-        <v>-204600</v>
+        <v>-205000</v>
       </c>
       <c r="H33" s="3">
-        <v>-55500</v>
+        <v>-55600</v>
       </c>
       <c r="I33" s="3">
-        <v>-41100</v>
+        <v>-41200</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1708,22 +1708,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-345500</v>
+        <v>-346200</v>
       </c>
       <c r="E35" s="3">
-        <v>-321200</v>
+        <v>-321900</v>
       </c>
       <c r="F35" s="3">
-        <v>64900</v>
+        <v>65000</v>
       </c>
       <c r="G35" s="3">
-        <v>-204600</v>
+        <v>-205000</v>
       </c>
       <c r="H35" s="3">
-        <v>-55500</v>
+        <v>-55600</v>
       </c>
       <c r="I35" s="3">
-        <v>-41100</v>
+        <v>-41200</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1825,22 +1825,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>442800</v>
+        <v>443800</v>
       </c>
       <c r="E41" s="3">
-        <v>485500</v>
+        <v>486500</v>
       </c>
       <c r="F41" s="3">
-        <v>655700</v>
+        <v>657100</v>
       </c>
       <c r="G41" s="3">
-        <v>156700</v>
+        <v>157100</v>
       </c>
       <c r="H41" s="3">
-        <v>218800</v>
+        <v>219300</v>
       </c>
       <c r="I41" s="3">
-        <v>42400</v>
+        <v>42500</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1864,22 +1864,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>32400</v>
+        <v>32500</v>
       </c>
       <c r="E42" s="3">
-        <v>103800</v>
+        <v>104000</v>
       </c>
       <c r="F42" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="G42" s="3">
         <v>4400</v>
       </c>
       <c r="H42" s="3">
-        <v>29700</v>
+        <v>29800</v>
       </c>
       <c r="I42" s="3">
-        <v>36700</v>
+        <v>36800</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1906,10 +1906,10 @@
         <v>1100</v>
       </c>
       <c r="E43" s="3">
-        <v>51900</v>
+        <v>52000</v>
       </c>
       <c r="F43" s="3">
-        <v>61000</v>
+        <v>61200</v>
       </c>
       <c r="G43" s="3">
         <v>4100</v>
@@ -1984,7 +1984,7 @@
         <v>23300</v>
       </c>
       <c r="E45" s="3">
-        <v>13900</v>
+        <v>14000</v>
       </c>
       <c r="F45" s="3">
         <v>15200</v>
@@ -1993,7 +1993,7 @@
         <v>22400</v>
       </c>
       <c r="H45" s="3">
-        <v>24200</v>
+        <v>24300</v>
       </c>
       <c r="I45" s="3">
         <v>15700</v>
@@ -2020,22 +2020,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>499700</v>
+        <v>500700</v>
       </c>
       <c r="E46" s="3">
-        <v>658800</v>
+        <v>660300</v>
       </c>
       <c r="F46" s="3">
-        <v>736300</v>
+        <v>737900</v>
       </c>
       <c r="G46" s="3">
-        <v>187600</v>
+        <v>188000</v>
       </c>
       <c r="H46" s="3">
-        <v>280600</v>
+        <v>281200</v>
       </c>
       <c r="I46" s="3">
-        <v>95300</v>
+        <v>95500</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2062,10 +2062,10 @@
         <v>4300</v>
       </c>
       <c r="E47" s="3">
-        <v>48500</v>
+        <v>48600</v>
       </c>
       <c r="F47" s="3">
-        <v>91600</v>
+        <v>91800</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -2101,10 +2101,10 @@
         <v>17100</v>
       </c>
       <c r="E48" s="3">
-        <v>21800</v>
+        <v>21900</v>
       </c>
       <c r="F48" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="G48" s="3">
         <v>6400</v>
@@ -2137,22 +2137,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>38800</v>
+        <v>38900</v>
       </c>
       <c r="E49" s="3">
-        <v>38900</v>
+        <v>39000</v>
       </c>
       <c r="F49" s="3">
-        <v>39000</v>
+        <v>39100</v>
       </c>
       <c r="G49" s="3">
-        <v>42900</v>
+        <v>43000</v>
       </c>
       <c r="H49" s="3">
-        <v>42900</v>
+        <v>43000</v>
       </c>
       <c r="I49" s="3">
-        <v>42900</v>
+        <v>43000</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2332,22 +2332,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>561300</v>
+        <v>562500</v>
       </c>
       <c r="E54" s="3">
-        <v>771700</v>
+        <v>773400</v>
       </c>
       <c r="F54" s="3">
-        <v>872700</v>
+        <v>874600</v>
       </c>
       <c r="G54" s="3">
-        <v>239400</v>
+        <v>239900</v>
       </c>
       <c r="H54" s="3">
-        <v>327400</v>
+        <v>328100</v>
       </c>
       <c r="I54" s="3">
-        <v>141300</v>
+        <v>141600</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2459,7 +2459,7 @@
         <v>11000</v>
       </c>
       <c r="I58" s="3">
-        <v>13600</v>
+        <v>13700</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2483,22 +2483,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>101800</v>
+        <v>102100</v>
       </c>
       <c r="E59" s="3">
-        <v>78100</v>
+        <v>78200</v>
       </c>
       <c r="F59" s="3">
-        <v>79400</v>
+        <v>79600</v>
       </c>
       <c r="G59" s="3">
-        <v>74200</v>
+        <v>74400</v>
       </c>
       <c r="H59" s="3">
-        <v>36700</v>
+        <v>36800</v>
       </c>
       <c r="I59" s="3">
-        <v>13200</v>
+        <v>13300</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2522,19 +2522,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>104500</v>
+        <v>104700</v>
       </c>
       <c r="E60" s="3">
-        <v>86000</v>
+        <v>86200</v>
       </c>
       <c r="F60" s="3">
-        <v>79400</v>
+        <v>79600</v>
       </c>
       <c r="G60" s="3">
-        <v>81100</v>
+        <v>81300</v>
       </c>
       <c r="H60" s="3">
-        <v>47700</v>
+        <v>47800</v>
       </c>
       <c r="I60" s="3">
         <v>26900</v>
@@ -2573,7 +2573,7 @@
         <v>9400</v>
       </c>
       <c r="H61" s="3">
-        <v>9200</v>
+        <v>9300</v>
       </c>
       <c r="I61" s="3">
         <v>15700</v>
@@ -2600,10 +2600,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>55900</v>
+        <v>56000</v>
       </c>
       <c r="E62" s="3">
-        <v>57500</v>
+        <v>57700</v>
       </c>
       <c r="F62" s="3">
         <v>18000</v>
@@ -2756,22 +2756,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>160300</v>
+        <v>160700</v>
       </c>
       <c r="E66" s="3">
-        <v>143500</v>
+        <v>143800</v>
       </c>
       <c r="F66" s="3">
-        <v>97400</v>
+        <v>97600</v>
       </c>
       <c r="G66" s="3">
-        <v>92000</v>
+        <v>92200</v>
       </c>
       <c r="H66" s="3">
-        <v>57300</v>
+        <v>57400</v>
       </c>
       <c r="I66" s="3">
-        <v>84700</v>
+        <v>84900</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2899,13 +2899,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>427700</v>
+        <v>428600</v>
       </c>
       <c r="H70" s="3">
-        <v>401700</v>
+        <v>402600</v>
       </c>
       <c r="I70" s="3">
-        <v>97900</v>
+        <v>98100</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2968,22 +2968,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-945500</v>
+        <v>-947500</v>
       </c>
       <c r="E72" s="3">
-        <v>-600000</v>
+        <v>-601300</v>
       </c>
       <c r="F72" s="3">
-        <v>-278800</v>
+        <v>-279400</v>
       </c>
       <c r="G72" s="3">
-        <v>-343700</v>
+        <v>-344400</v>
       </c>
       <c r="H72" s="3">
-        <v>-139800</v>
+        <v>-140100</v>
       </c>
       <c r="I72" s="3">
-        <v>-49300</v>
+        <v>-49400</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -3124,22 +3124,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>400900</v>
+        <v>401800</v>
       </c>
       <c r="E76" s="3">
-        <v>628200</v>
+        <v>629600</v>
       </c>
       <c r="F76" s="3">
-        <v>775300</v>
+        <v>777000</v>
       </c>
       <c r="G76" s="3">
-        <v>-280300</v>
+        <v>-280900</v>
       </c>
       <c r="H76" s="3">
-        <v>-131600</v>
+        <v>-131900</v>
       </c>
       <c r="I76" s="3">
-        <v>-41300</v>
+        <v>-41400</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3246,22 +3246,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-345500</v>
+        <v>-346200</v>
       </c>
       <c r="E81" s="3">
-        <v>-321200</v>
+        <v>-321900</v>
       </c>
       <c r="F81" s="3">
-        <v>64900</v>
+        <v>65000</v>
       </c>
       <c r="G81" s="3">
-        <v>-204600</v>
+        <v>-205000</v>
       </c>
       <c r="H81" s="3">
-        <v>-55500</v>
+        <v>-55600</v>
       </c>
       <c r="I81" s="3">
-        <v>-41100</v>
+        <v>-41200</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3536,22 +3536,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-151900</v>
+        <v>-152300</v>
       </c>
       <c r="E89" s="3">
-        <v>-134100</v>
+        <v>-134400</v>
       </c>
       <c r="F89" s="3">
-        <v>59700</v>
+        <v>59900</v>
       </c>
       <c r="G89" s="3">
-        <v>-119600</v>
+        <v>-119900</v>
       </c>
       <c r="H89" s="3">
-        <v>-38700</v>
+        <v>-38800</v>
       </c>
       <c r="I89" s="3">
-        <v>-34700</v>
+        <v>-34800</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3709,13 +3709,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="E94" s="3">
-        <v>-100200</v>
+        <v>-100400</v>
       </c>
       <c r="F94" s="3">
-        <v>-27800</v>
+        <v>-27900</v>
       </c>
       <c r="G94" s="3">
         <v>29300</v>
@@ -3724,7 +3724,7 @@
         <v>1300</v>
       </c>
       <c r="I94" s="3">
-        <v>-21700</v>
+        <v>-21800</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3924,19 +3924,19 @@
         <v>5800</v>
       </c>
       <c r="E100" s="3">
-        <v>81800</v>
+        <v>82000</v>
       </c>
       <c r="F100" s="3">
-        <v>474000</v>
+        <v>475100</v>
       </c>
       <c r="G100" s="3">
-        <v>21000</v>
+        <v>21100</v>
       </c>
       <c r="H100" s="3">
-        <v>203900</v>
+        <v>204300</v>
       </c>
       <c r="I100" s="3">
-        <v>104500</v>
+        <v>104700</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3960,10 +3960,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>53600</v>
+        <v>53700</v>
       </c>
       <c r="E101" s="3">
-        <v>-17700</v>
+        <v>-17800</v>
       </c>
       <c r="F101" s="3">
         <v>-14700</v>
@@ -3972,7 +3972,7 @@
         <v>2100</v>
       </c>
       <c r="H101" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
@@ -3999,22 +3999,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-29300</v>
+        <v>-29400</v>
       </c>
       <c r="E102" s="3">
-        <v>-170200</v>
+        <v>-170500</v>
       </c>
       <c r="F102" s="3">
-        <v>491300</v>
+        <v>492300</v>
       </c>
       <c r="G102" s="3">
-        <v>-67200</v>
+        <v>-67300</v>
       </c>
       <c r="H102" s="3">
-        <v>174700</v>
+        <v>175100</v>
       </c>
       <c r="I102" s="3">
-        <v>48000</v>
+        <v>48100</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
